--- a/Input/reduced_filtered_AI_hmi_alarms.xlsx
+++ b/Input/reduced_filtered_AI_hmi_alarms.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefano.massoletti.REGROUP\Desktop\LAVORO\Leonardo\_Generiche\Tool Nastri Leonardo\Nastrini-e-Coriandoli\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306F722B-63ED-4A0D-B16A-A2A746F50043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B21BF30-6E98-4342-8C79-F0D6A58B0CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-7920" windowWidth="29040" windowHeight="15720" tabRatio="1000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" tabRatio="1000" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SV DB" sheetId="18" r:id="rId1"/>
     <sheet name="SV_PANEL" sheetId="9" r:id="rId2"/>
     <sheet name="SV_LINE" sheetId="11" r:id="rId3"/>
     <sheet name="SV_TRUNK" sheetId="13" r:id="rId4"/>
-    <sheet name="SV_PPP" sheetId="5" r:id="rId5"/>
+    <sheet name="SV_PCE" sheetId="5" r:id="rId5"/>
     <sheet name="SV_ZONE" sheetId="56" r:id="rId6"/>
     <sheet name="SV_PCT" sheetId="2" r:id="rId7"/>
     <sheet name="SV_CONVEYOR" sheetId="7" r:id="rId8"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4039" uniqueCount="1669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4074" uniqueCount="1704">
   <si>
     <t>0.0</t>
   </si>
@@ -3475,12 +3475,6 @@
     <t>CNTUNEXPECTED</t>
   </si>
   <si>
-    <t>ALL_SAF_BR_2</t>
-  </si>
-  <si>
-    <t>ALL_SAF_BR_1</t>
-  </si>
-  <si>
     <t>ENERGY SAVING</t>
   </si>
   <si>
@@ -3682,9 +3676,6 @@
     <t>SV_TRUNK</t>
   </si>
   <si>
-    <t>SV_PPP</t>
-  </si>
-  <si>
     <t>SV_PCT</t>
   </si>
   <si>
@@ -3862,9 +3853,6 @@
     <t>TRUNK #: General fault detected.</t>
   </si>
   <si>
-    <t>PPP #: Emergency ON</t>
-  </si>
-  <si>
     <t>PCT #: Communication protocol error detected.</t>
   </si>
   <si>
@@ -4153,12 +4141,6 @@
     <t xml:space="preserve">SWIVEL #: Disk not ready to move. </t>
   </si>
   <si>
-    <t>CAROUSEL #: Safety breaker 1 open fault.</t>
-  </si>
-  <si>
-    <t>CAROUSEL #: Safety breaker 2 open fault.</t>
-  </si>
-  <si>
     <t>CAROUSEL #: Inverter 1 fault detected.</t>
   </si>
   <si>
@@ -4198,9 +4180,6 @@
     <t>PANNEAU # : Défaillance générale du bus de communication.</t>
   </si>
   <si>
-    <t>PPP #: Urgence activée</t>
-  </si>
-  <si>
     <t>PCT #: Erreur de protocole de communication détectée.</t>
   </si>
   <si>
@@ -4381,12 +4360,6 @@
     <t>CONVOYEUR #: Défaut du capteur photoélectrique 5.</t>
   </si>
   <si>
-    <t>CARROUSEL #: Défaut disjoncteur de sécurité 1 ouvert.</t>
-  </si>
-  <si>
-    <t>CARROUSEL #: Défaut disjoncteur de sécurité 2 ouvert.</t>
-  </si>
-  <si>
     <t>CARROUSEL #: Défaut onduleur 1 détecté.</t>
   </si>
   <si>
@@ -4639,12 +4612,6 @@
     <t>ALL_COMM_FLT</t>
   </si>
   <si>
-    <t>PPP #: Communication error</t>
-  </si>
-  <si>
-    <t>PPP #: Defaut de communication</t>
-  </si>
-  <si>
     <t>TRONC #: Défaut de cellule photoélectrique détecté.</t>
   </si>
   <si>
@@ -5060,6 +5027,144 @@
   </si>
   <si>
     <t>9.7</t>
+  </si>
+  <si>
+    <t>ALL_LOCAL_SELECTOR</t>
+  </si>
+  <si>
+    <t>CONVEYOR LOCAL SELECTOR ON</t>
+  </si>
+  <si>
+    <t>CONVEYOR #: Local selector ON</t>
+  </si>
+  <si>
+    <t>CONVOYEUR #: Sélecteur local activé</t>
+  </si>
+  <si>
+    <t>ALL_LOCAL_SELECTOR_M1</t>
+  </si>
+  <si>
+    <t>ALL_LOCAL_SELECTOR_M2</t>
+  </si>
+  <si>
+    <t>ALL_LOCAL_SELECTOR_M3</t>
+  </si>
+  <si>
+    <t>CAROUSEL #: Motor 1 - Local key selector</t>
+  </si>
+  <si>
+    <t>CAROUSEL #: Motor 2 - Local key selector</t>
+  </si>
+  <si>
+    <t>CAROUSEL #: Motor 3 - Local key selector</t>
+  </si>
+  <si>
+    <t>CAROUSEL # : Moteur 1 - Sélecteur à clé locale</t>
+  </si>
+  <si>
+    <t>CAROUSEL # : Moteur 2 - Sélecteur à clé locale</t>
+  </si>
+  <si>
+    <t>CAROUSEL # : Moteur 3 - Sélecteur à clé locale</t>
+  </si>
+  <si>
+    <t>MOTOR 1: LOCAL SELECTOR  KEY ON</t>
+  </si>
+  <si>
+    <t>MOTOR 2: LOCAL SELECTOR  KEY ON</t>
+  </si>
+  <si>
+    <t>MOTOR 3: LOCAL SELECTOR  KEY ON</t>
+  </si>
+  <si>
+    <t>CARROUSEL #: Défaut disjoncteur de sécurité ouvert.</t>
+  </si>
+  <si>
+    <t>ALL_INV_3</t>
+  </si>
+  <si>
+    <t>CAROUSEL #: Inverter 3 fault detected.</t>
+  </si>
+  <si>
+    <t>CARROUSEL #: Défaut onduleur 3 détecté.</t>
+  </si>
+  <si>
+    <t>ALL_EOK_3</t>
+  </si>
+  <si>
+    <t>AUTOMATIC TERMIC 3 FAULT</t>
+  </si>
+  <si>
+    <t>CAROUSEL #: Automatic thermal protection 3 triggered.</t>
+  </si>
+  <si>
+    <t>CARROUSEL #: Protection thermique automatique 3 déclenchée.</t>
+  </si>
+  <si>
+    <t>CAROUSEL COMPLETELY FULL</t>
+  </si>
+  <si>
+    <t>ST_SAFETY_BREAKER3_OFF</t>
+  </si>
+  <si>
+    <t>ALL_INT_AUT_1</t>
+  </si>
+  <si>
+    <t>CAROUSEL #: Motor 1 - Safety switch open fault.</t>
+  </si>
+  <si>
+    <t>CAROUSEL # : Moteur 1 - Défaut d'ouverture de l'interrupteur de sécurité.</t>
+  </si>
+  <si>
+    <t>ALL_INT_AUT_2</t>
+  </si>
+  <si>
+    <t>CAROUSEL #: Motor 2- Safety switch open fault.</t>
+  </si>
+  <si>
+    <t>CAROUSEL # : Moteur 2 - Défaut d'ouverture de l'interrupteur de sécurité.</t>
+  </si>
+  <si>
+    <t>ALL_INT_AUT_3</t>
+  </si>
+  <si>
+    <t>CAROUSEL #: Motor 3 - Safety switch open fault.</t>
+  </si>
+  <si>
+    <t>CAROUSEL # : Moteur 3 - Défaut d'ouverture de l'interrupteur de sécurité.</t>
+  </si>
+  <si>
+    <t>HOUR_COUNTER_M3</t>
+  </si>
+  <si>
+    <t>WORK HOURS COUNTER M3</t>
+  </si>
+  <si>
+    <t>TOTAL COUNT OF STARTS</t>
+  </si>
+  <si>
+    <t>FAULT TIME IN HOURS</t>
+  </si>
+  <si>
+    <t>TOTAL COUNT OF FAULT</t>
+  </si>
+  <si>
+    <t>SV_PCE</t>
+  </si>
+  <si>
+    <t>PCE #: Emergency ON</t>
+  </si>
+  <si>
+    <t>PCE #: Communication error</t>
+  </si>
+  <si>
+    <t>PCE #: Urgence activée</t>
+  </si>
+  <si>
+    <t>PCE #: Defaut de communication</t>
+  </si>
+  <si>
+    <t>CAROUSEL #: Safety breaker open fault.</t>
   </si>
 </sst>
 </file>
@@ -5306,7 +5411,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5386,6 +5491,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal 13" xfId="3" xr:uid="{300B754C-1DDD-4291-A3F2-A1076D1FAA56}"/>
@@ -5696,7 +5805,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5714,12 +5823,12 @@
         <v>236</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>1377</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B2" s="8">
         <v>300</v>
@@ -5730,7 +5839,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="B3" s="8">
         <v>302</v>
@@ -5741,7 +5850,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="B4" s="8">
         <v>304</v>
@@ -5752,7 +5861,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>1209</v>
+        <v>1698</v>
       </c>
       <c r="B5" s="8">
         <v>308</v>
@@ -5763,7 +5872,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>1596</v>
+        <v>1585</v>
       </c>
       <c r="B6" s="8">
         <v>2306</v>
@@ -5774,7 +5883,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="B7" s="8">
         <v>314</v>
@@ -5785,7 +5894,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="B8" s="8">
         <v>320</v>
@@ -5796,7 +5905,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="B9" s="8">
         <v>332</v>
@@ -5807,7 +5916,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="B10" s="8">
         <v>325</v>
@@ -5818,7 +5927,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="B11" s="8">
         <v>342</v>
@@ -5829,7 +5938,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="B12" s="8">
         <v>350</v>
@@ -5840,7 +5949,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="B13" s="8">
         <v>376</v>
@@ -5851,7 +5960,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="B14" s="8">
         <v>386</v>
@@ -5862,7 +5971,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="B15" s="8">
         <v>388</v>
@@ -5873,7 +5982,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="B16" s="8">
         <v>322</v>
@@ -5884,7 +5993,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="B17" s="8">
         <v>398</v>
@@ -5895,7 +6004,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="B18" s="8">
         <v>326</v>
@@ -5906,7 +6015,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="B19" s="8">
         <v>306</v>
@@ -5917,7 +6026,7 @@
     </row>
     <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
-        <v>1539</v>
+        <v>1528</v>
       </c>
       <c r="B20" s="9">
         <v>310</v>
@@ -5967,10 +6076,10 @@
         <v>523</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>1379</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -6030,10 +6139,10 @@
         <v>715</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="F5" t="s">
-        <v>1384</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -6050,10 +6159,10 @@
         <v>716</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="F6" t="s">
-        <v>1385</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -6070,10 +6179,10 @@
         <v>717</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="F7" t="s">
-        <v>1386</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -7853,10 +7962,10 @@
         <v>523</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>1379</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -8149,7 +8258,7 @@
         <v>965</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="E21" s="6"/>
     </row>
@@ -8450,10 +8559,10 @@
         <v>756</v>
       </c>
       <c r="E41" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>1389</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -8470,10 +8579,10 @@
         <v>757</v>
       </c>
       <c r="E42" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>1390</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -8596,10 +8705,10 @@
         <v>759</v>
       </c>
       <c r="E51" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>1391</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -8616,10 +8725,10 @@
         <v>760</v>
       </c>
       <c r="E52" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>1392</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -8636,10 +8745,10 @@
         <v>761</v>
       </c>
       <c r="E53" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>1393</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -8656,10 +8765,10 @@
         <v>762</v>
       </c>
       <c r="E54" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>1394</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -8676,10 +8785,10 @@
         <v>763</v>
       </c>
       <c r="E55" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>1395</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -8694,10 +8803,10 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>1396</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -8714,10 +8823,10 @@
         <v>1038</v>
       </c>
       <c r="E57" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>1397</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -8734,10 +8843,10 @@
         <v>1039</v>
       </c>
       <c r="E58" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>1398</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -8754,10 +8863,10 @@
         <v>764</v>
       </c>
       <c r="E59" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>1399</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -8774,10 +8883,10 @@
         <v>765</v>
       </c>
       <c r="E60" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>1400</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -8794,10 +8903,10 @@
         <v>766</v>
       </c>
       <c r="E61" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>1401</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -8814,10 +8923,10 @@
         <v>767</v>
       </c>
       <c r="E62" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>1402</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -8834,10 +8943,10 @@
         <v>768</v>
       </c>
       <c r="E63" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>1403</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -8852,10 +8961,10 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>1404</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -8870,10 +8979,10 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>1405</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -8888,10 +8997,10 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>1406</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -8906,10 +9015,10 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>1407</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -8924,10 +9033,10 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>1408</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -8942,10 +9051,10 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>1409</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -8960,10 +9069,10 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>1410</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -9069,10 +9178,10 @@
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>1411</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -9087,10 +9196,10 @@
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>1412</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -9131,10 +9240,10 @@
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>1413</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -9162,10 +9271,10 @@
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>1387</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -9206,10 +9315,10 @@
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>1388</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -10107,10 +10216,10 @@
         <v>523</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>1379</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -10903,10 +11012,10 @@
         <v>277</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="F58" t="s">
-        <v>1452</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -10923,10 +11032,10 @@
         <v>278</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="F59" t="s">
-        <v>1453</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -10943,10 +11052,10 @@
         <v>279</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="F60" t="s">
-        <v>1454</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -10963,10 +11072,10 @@
         <v>280</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="F61" t="s">
-        <v>1455</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -10983,10 +11092,10 @@
         <v>281</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="F62" t="s">
-        <v>1456</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -11003,10 +11112,10 @@
         <v>247</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="F63" t="s">
-        <v>1457</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -11023,10 +11132,10 @@
         <v>285</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="F64" t="s">
-        <v>1458</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -11343,10 +11452,10 @@
         <v>523</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>1379</v>
+        <v>1373</v>
       </c>
       <c r="G1" s="6"/>
     </row>
@@ -11507,10 +11616,10 @@
         <v>778</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>1459</v>
+        <v>1450</v>
       </c>
       <c r="G11" s="6"/>
     </row>
@@ -11528,10 +11637,10 @@
         <v>780</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>1460</v>
+        <v>1451</v>
       </c>
       <c r="G12" s="6"/>
     </row>
@@ -11549,10 +11658,10 @@
         <v>782</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>1461</v>
+        <v>1452</v>
       </c>
       <c r="G13" s="6"/>
     </row>
@@ -11570,10 +11679,10 @@
         <v>784</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>1462</v>
+        <v>1453</v>
       </c>
       <c r="G14" s="6"/>
     </row>
@@ -11694,10 +11803,10 @@
         <v>790</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -11705,16 +11814,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>791</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>1175</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>1177</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
@@ -11722,16 +11831,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>1175</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>1177</v>
       </c>
       <c r="E24" s="6"/>
     </row>
@@ -11785,10 +11894,10 @@
         <v>523</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>1379</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -11873,10 +11982,10 @@
         <v>800</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="F6" t="s">
-        <v>1463</v>
+        <v>1454</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -11895,10 +12004,10 @@
         <v>802</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="F7" t="s">
-        <v>1464</v>
+        <v>1455</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -11917,10 +12026,10 @@
         <v>804</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="F8" t="s">
-        <v>1465</v>
+        <v>1456</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -11939,10 +12048,10 @@
         <v>806</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="F9" t="s">
-        <v>1466</v>
+        <v>1457</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -11961,10 +12070,10 @@
         <v>808</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="F10" t="s">
-        <v>1467</v>
+        <v>1458</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -11983,10 +12092,10 @@
         <v>810</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="F11" t="s">
-        <v>1468</v>
+        <v>1459</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -12077,10 +12186,10 @@
         <v>523</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>1379</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -12155,10 +12264,10 @@
         <v>818</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="F6" t="s">
-        <v>1469</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -12343,10 +12452,10 @@
         <v>825</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="F19" t="s">
-        <v>1470</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -12363,10 +12472,10 @@
         <v>826</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="F20" t="s">
-        <v>1471</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -12383,10 +12492,10 @@
         <v>827</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="F21" t="s">
-        <v>1472</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -12403,10 +12512,10 @@
         <v>828</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="F22" t="s">
-        <v>1473</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -12423,10 +12532,10 @@
         <v>829</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="F23" t="s">
-        <v>1474</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -12441,10 +12550,10 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="6" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="F24" t="s">
-        <v>1475</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -12532,10 +12641,10 @@
         <v>523</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>1379</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -12715,10 +12824,10 @@
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="6" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="F13" t="s">
-        <v>1476</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -13038,13 +13147,13 @@
         <v>965</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="F37" t="s">
-        <v>1477</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -13061,10 +13170,10 @@
         <v>1025</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="F38" t="s">
-        <v>1478</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -13078,13 +13187,13 @@
         <v>965</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="F39" t="s">
-        <v>1479</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -13098,13 +13207,13 @@
         <v>965</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="F40" t="s">
-        <v>1480</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -13118,13 +13227,13 @@
         <v>965</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="F41" t="s">
-        <v>1481</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -13138,13 +13247,13 @@
         <v>965</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="F42" t="s">
-        <v>1482</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -13158,13 +13267,13 @@
         <v>965</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="F43" t="s">
-        <v>1483</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -13178,13 +13287,13 @@
         <v>965</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="F44" t="s">
-        <v>1484</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -13198,13 +13307,13 @@
         <v>965</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="F45" t="s">
-        <v>1485</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -13218,13 +13327,13 @@
         <v>965</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="F46" t="s">
-        <v>1486</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -13238,13 +13347,13 @@
         <v>965</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
       <c r="F47" t="s">
-        <v>1487</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -13258,13 +13367,13 @@
         <v>965</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
       <c r="F48" t="s">
-        <v>1488</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -13281,10 +13390,10 @@
         <v>1026</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="F49" t="s">
-        <v>1489</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -13301,10 +13410,10 @@
         <v>1027</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="F50" t="s">
-        <v>1490</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -13318,13 +13427,13 @@
         <v>965</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="F51" t="s">
-        <v>1491</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -13338,13 +13447,13 @@
         <v>965</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="F52" t="s">
-        <v>1492</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -13358,13 +13467,13 @@
         <v>965</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="F53" t="s">
-        <v>1493</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -13381,10 +13490,10 @@
         <v>1028</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="F54" t="s">
-        <v>1494</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -13401,10 +13510,10 @@
         <v>1029</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="F55" t="s">
-        <v>1495</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -13421,10 +13530,10 @@
         <v>1030</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="F56" t="s">
-        <v>1496</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -13441,10 +13550,10 @@
         <v>1031</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="F57" t="s">
-        <v>1497</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -13461,10 +13570,10 @@
         <v>1032</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="F58" t="s">
-        <v>1498</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -13481,10 +13590,10 @@
         <v>1033</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="F59" t="s">
-        <v>1499</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -13501,10 +13610,10 @@
         <v>1034</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="F60" t="s">
-        <v>1500</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -13521,10 +13630,10 @@
         <v>1035</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="F61" t="s">
-        <v>1501</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -13541,10 +13650,10 @@
         <v>1036</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="F62" t="s">
-        <v>1502</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -13561,10 +13670,10 @@
         <v>1037</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="F63" t="s">
-        <v>1503</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -13578,13 +13687,13 @@
         <v>965</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="F64" t="s">
-        <v>1504</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -13598,13 +13707,13 @@
         <v>965</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="F65" t="s">
-        <v>1505</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -13779,10 +13888,10 @@
         <v>523</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>1379</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -14108,10 +14217,10 @@
         <v>254</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="F23" t="s">
-        <v>1512</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -14510,10 +14619,10 @@
         <v>272</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
       <c r="F50" t="s">
-        <v>1513</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -14530,10 +14639,10 @@
         <v>273</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
       <c r="F51" t="s">
-        <v>1514</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -14550,10 +14659,10 @@
         <v>274</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>1357</v>
+        <v>1353</v>
       </c>
       <c r="F52" t="s">
-        <v>1515</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -14570,10 +14679,10 @@
         <v>275</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="F53" t="s">
-        <v>1516</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -14590,10 +14699,10 @@
         <v>276</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
       <c r="F54" t="s">
-        <v>1517</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -14610,10 +14719,10 @@
         <v>247</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="F55" t="s">
-        <v>1518</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -14630,10 +14739,10 @@
         <v>874</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
       <c r="F56" t="s">
-        <v>1519</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -14678,10 +14787,10 @@
         <v>278</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="F59" t="s">
-        <v>1520</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -14698,10 +14807,10 @@
         <v>279</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="F60" t="s">
-        <v>1521</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -14718,10 +14827,10 @@
         <v>280</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
       <c r="F61" t="s">
-        <v>1522</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -14738,10 +14847,10 @@
         <v>281</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
       <c r="F62" t="s">
-        <v>1523</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -15077,10 +15186,10 @@
         <v>523</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>1379</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -15088,13 +15197,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="E2" s="6"/>
     </row>
@@ -15103,13 +15212,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>1162</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>1164</v>
       </c>
       <c r="E3" s="6"/>
     </row>
@@ -15118,13 +15227,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>1163</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>1165</v>
       </c>
       <c r="E4" s="6"/>
     </row>
@@ -15163,13 +15272,13 @@
         <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>1166</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>1168</v>
       </c>
       <c r="E7" s="6"/>
     </row>
@@ -15178,13 +15287,13 @@
         <v>13</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>1167</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>1169</v>
       </c>
       <c r="E8" s="6"/>
     </row>
@@ -15310,19 +15419,19 @@
         <v>36</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="F18" t="s">
-        <v>1506</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -15330,19 +15439,19 @@
         <v>2.1</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
       <c r="F19" t="s">
-        <v>1507</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -15466,7 +15575,7 @@
         <v>3.3</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>2</v>
@@ -15571,10 +15680,10 @@
         <v>523</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>1379</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -15706,10 +15815,10 @@
         <v>1098</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="F10" t="s">
-        <v>1508</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -15726,10 +15835,10 @@
         <v>1099</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
       <c r="F11" t="s">
-        <v>1509</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -15746,10 +15855,10 @@
         <v>1100</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
       <c r="F12" t="s">
-        <v>1510</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -16041,10 +16150,10 @@
         <v>523</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>1379</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -16074,10 +16183,10 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="6" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="F3" t="s">
-        <v>1380</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -16282,10 +16391,10 @@
         <v>526</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="F18" t="s">
-        <v>1414</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -16302,10 +16411,10 @@
         <v>527</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="F19" t="s">
-        <v>1415</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -16322,10 +16431,10 @@
         <v>680</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="F20" t="s">
-        <v>1416</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -16342,10 +16451,10 @@
         <v>528</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="F21" t="s">
-        <v>1417</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -16362,10 +16471,10 @@
         <v>529</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="F22" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -16382,10 +16491,10 @@
         <v>530</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="F23" t="s">
-        <v>1419</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -16402,10 +16511,10 @@
         <v>531</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="F24" t="s">
-        <v>1420</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -18505,10 +18614,10 @@
         <v>523</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>1379</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -18522,7 +18631,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="E2" s="6"/>
     </row>
@@ -18537,7 +18646,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="E3" s="6"/>
     </row>
@@ -18552,13 +18661,13 @@
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
       <c r="F4" t="s">
-        <v>1511</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -18566,7 +18675,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>2</v>
@@ -18581,7 +18690,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>2</v>
@@ -18596,13 +18705,13 @@
         <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="E7" s="6"/>
     </row>
@@ -18611,13 +18720,13 @@
         <v>13</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="E8" s="6"/>
     </row>
@@ -18639,7 +18748,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>2</v>
@@ -18652,7 +18761,7 @@
         <v>19</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>2</v>
@@ -18665,7 +18774,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>2</v>
@@ -18678,7 +18787,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>2</v>
@@ -18775,10 +18884,10 @@
         <v>523</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>1379</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -18786,19 +18895,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>1543</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>1540</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>1554</v>
-      </c>
       <c r="F2" t="s">
-        <v>1557</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -18806,19 +18915,19 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>1544</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>1541</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>1555</v>
-      </c>
       <c r="F3" t="s">
-        <v>1558</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -18826,19 +18935,19 @@
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>1531</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>1545</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>1542</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>1556</v>
-      </c>
       <c r="F4" t="s">
-        <v>1559</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -18846,7 +18955,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1546</v>
+        <v>1535</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>2</v>
@@ -18859,7 +18968,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1547</v>
+        <v>1536</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>2</v>
@@ -18872,7 +18981,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1548</v>
+        <v>1537</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
@@ -18885,7 +18994,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1549</v>
+        <v>1538</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>2</v>
@@ -18898,7 +19007,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1550</v>
+        <v>1539</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
@@ -18911,7 +19020,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1551</v>
+        <v>1540</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>2</v>
@@ -18924,7 +19033,7 @@
         <v>19</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1552</v>
+        <v>1541</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>2</v>
@@ -18937,7 +19046,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1553</v>
+        <v>1542</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>2</v>
@@ -19051,10 +19160,10 @@
         <v>523</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>1379</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -19411,10 +19520,10 @@
         <v>696</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="F26" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -19431,10 +19540,10 @@
         <v>697</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="F27" t="s">
-        <v>1422</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -19451,10 +19560,10 @@
         <v>698</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="F28" t="s">
-        <v>1423</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -19471,10 +19580,10 @@
         <v>699</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="F29" t="s">
-        <v>1424</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -19951,10 +20060,10 @@
         <v>523</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>1379</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -20091,10 +20200,10 @@
         <v>245</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="F10" t="s">
-        <v>1530</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -20111,10 +20220,10 @@
         <v>246</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="F11" t="s">
-        <v>1531</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -20131,10 +20240,10 @@
         <v>247</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="F12" t="s">
-        <v>1532</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -20151,10 +20260,10 @@
         <v>248</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="F13" t="s">
-        <v>1533</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -20461,7 +20570,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20489,10 +20598,10 @@
         <v>523</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>1379</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -20521,7 +20630,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1576</v>
+        <v>1565</v>
       </c>
       <c r="E3" s="6"/>
     </row>
@@ -20731,10 +20840,10 @@
         <v>712</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>1269</v>
+        <v>1699</v>
       </c>
       <c r="F18" t="s">
-        <v>1381</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -20742,7 +20851,7 @@
         <v>37</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1527</v>
+        <v>1518</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>2</v>
@@ -20751,10 +20860,10 @@
         <v>270</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>1528</v>
+        <v>1700</v>
       </c>
       <c r="F19" t="s">
-        <v>1529</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -20958,7 +21067,7 @@
   </sheetPr>
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
@@ -20986,10 +21095,10 @@
         <v>523</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>1379</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -20997,7 +21106,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>1597</v>
+        <v>1586</v>
       </c>
       <c r="C2" s="29" t="s">
         <v>2</v>
@@ -21008,7 +21117,7 @@
         <v>36</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>1598</v>
+        <v>1587</v>
       </c>
       <c r="C3" s="29" t="s">
         <v>2</v>
@@ -21019,7 +21128,7 @@
         <v>37</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>1599</v>
+        <v>1588</v>
       </c>
       <c r="C4" s="29" t="s">
         <v>2</v>
@@ -21030,7 +21139,7 @@
         <v>38</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>1600</v>
+        <v>1589</v>
       </c>
       <c r="C5" s="29" t="s">
         <v>2</v>
@@ -21041,7 +21150,7 @@
         <v>39</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>1601</v>
+        <v>1590</v>
       </c>
       <c r="C6" s="29" t="s">
         <v>2</v>
@@ -21052,7 +21161,7 @@
         <v>40</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>1602</v>
+        <v>1591</v>
       </c>
       <c r="C7" s="29" t="s">
         <v>2</v>
@@ -21063,7 +21172,7 @@
         <v>41</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>1603</v>
+        <v>1592</v>
       </c>
       <c r="C8" s="29" t="s">
         <v>2</v>
@@ -21076,7 +21185,7 @@
         <v>102</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>1604</v>
+        <v>1593</v>
       </c>
       <c r="C9" s="29" t="s">
         <v>2</v>
@@ -21089,7 +21198,7 @@
         <v>103</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>1605</v>
+        <v>1594</v>
       </c>
       <c r="C10" s="29" t="s">
         <v>2</v>
@@ -21102,7 +21211,7 @@
         <v>104</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>1606</v>
+        <v>1595</v>
       </c>
       <c r="C11" s="29" t="s">
         <v>2</v>
@@ -21115,7 +21224,7 @@
         <v>105</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>1607</v>
+        <v>1596</v>
       </c>
       <c r="C12" s="29" t="s">
         <v>2</v>
@@ -21128,7 +21237,7 @@
         <v>106</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>1608</v>
+        <v>1597</v>
       </c>
       <c r="C13" s="29" t="s">
         <v>2</v>
@@ -21141,7 +21250,7 @@
         <v>107</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>1609</v>
+        <v>1598</v>
       </c>
       <c r="C14" s="29" t="s">
         <v>2</v>
@@ -21154,7 +21263,7 @@
         <v>108</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>1610</v>
+        <v>1599</v>
       </c>
       <c r="C15" s="29" t="s">
         <v>2</v>
@@ -21167,7 +21276,7 @@
         <v>109</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>1611</v>
+        <v>1600</v>
       </c>
       <c r="C16" s="29" t="s">
         <v>2</v>
@@ -21180,7 +21289,7 @@
         <v>110</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>1612</v>
+        <v>1601</v>
       </c>
       <c r="C17" s="29" t="s">
         <v>2</v>
@@ -21193,19 +21302,19 @@
         <v>111</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>1613</v>
+        <v>1602</v>
       </c>
       <c r="C18" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>1577</v>
+        <v>1566</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>1578</v>
+        <v>1567</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>1579</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -21213,19 +21322,19 @@
         <v>42</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>1614</v>
+        <v>1603</v>
       </c>
       <c r="C19" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>1580</v>
+        <v>1569</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>1581</v>
+        <v>1570</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>1582</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -21233,19 +21342,19 @@
         <v>292</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>1615</v>
+        <v>1604</v>
       </c>
       <c r="C20" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>1583</v>
+        <v>1572</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>1584</v>
+        <v>1573</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>1585</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -21253,19 +21362,19 @@
         <v>305</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>1616</v>
+        <v>1605</v>
       </c>
       <c r="C21" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>1586</v>
+        <v>1575</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>1587</v>
+        <v>1576</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>1588</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -21273,19 +21382,19 @@
         <v>306</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>1617</v>
+        <v>1606</v>
       </c>
       <c r="C22" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>1589</v>
+        <v>1578</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>1590</v>
+        <v>1579</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>1591</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -21293,19 +21402,19 @@
         <v>307</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>1618</v>
+        <v>1607</v>
       </c>
       <c r="C23" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>1592</v>
+        <v>1581</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>1593</v>
+        <v>1582</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>1594</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -21313,7 +21422,7 @@
         <v>308</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>1619</v>
+        <v>1608</v>
       </c>
       <c r="C24" s="29" t="s">
         <v>2</v>
@@ -21327,7 +21436,7 @@
         <v>309</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>1620</v>
+        <v>1609</v>
       </c>
       <c r="C25" s="29" t="s">
         <v>2</v>
@@ -21341,7 +21450,7 @@
         <v>310</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>1621</v>
+        <v>1610</v>
       </c>
       <c r="C26" s="29" t="s">
         <v>2</v>
@@ -21355,7 +21464,7 @@
         <v>311</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>1622</v>
+        <v>1611</v>
       </c>
       <c r="C27" s="29" t="s">
         <v>2</v>
@@ -21369,7 +21478,7 @@
         <v>465</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>1623</v>
+        <v>1612</v>
       </c>
       <c r="C28" s="29" t="s">
         <v>2</v>
@@ -21383,7 +21492,7 @@
         <v>466</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>1624</v>
+        <v>1613</v>
       </c>
       <c r="C29" s="29" t="s">
         <v>2</v>
@@ -21397,7 +21506,7 @@
         <v>467</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>1625</v>
+        <v>1614</v>
       </c>
       <c r="C30" s="29" t="s">
         <v>2</v>
@@ -21411,7 +21520,7 @@
         <v>468</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>1626</v>
+        <v>1615</v>
       </c>
       <c r="C31" s="29" t="s">
         <v>2</v>
@@ -21425,7 +21534,7 @@
         <v>469</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>1627</v>
+        <v>1616</v>
       </c>
       <c r="C32" s="29" t="s">
         <v>2</v>
@@ -21439,7 +21548,7 @@
         <v>470</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>1628</v>
+        <v>1617</v>
       </c>
       <c r="C33" s="29" t="s">
         <v>2</v>
@@ -21453,13 +21562,13 @@
         <v>471</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>1629</v>
+        <v>1618</v>
       </c>
       <c r="C34" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>1595</v>
+        <v>1584</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -21469,13 +21578,13 @@
         <v>43</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>1630</v>
+        <v>1619</v>
       </c>
       <c r="C35" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>1595</v>
+        <v>1584</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -21485,13 +21594,13 @@
         <v>472</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>1631</v>
+        <v>1620</v>
       </c>
       <c r="C36" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>1595</v>
+        <v>1584</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -21501,13 +21610,13 @@
         <v>473</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>1632</v>
+        <v>1621</v>
       </c>
       <c r="C37" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>1595</v>
+        <v>1584</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -21517,13 +21626,13 @@
         <v>474</v>
       </c>
       <c r="B38" s="28" t="s">
-        <v>1633</v>
+        <v>1622</v>
       </c>
       <c r="C38" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="29" t="s">
-        <v>1595</v>
+        <v>1584</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -21533,13 +21642,13 @@
         <v>475</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>1634</v>
+        <v>1623</v>
       </c>
       <c r="C39" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D39" s="29" t="s">
-        <v>1595</v>
+        <v>1584</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -21549,13 +21658,13 @@
         <v>476</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>1635</v>
+        <v>1624</v>
       </c>
       <c r="C40" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D40" s="29" t="s">
-        <v>1595</v>
+        <v>1584</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -21565,13 +21674,13 @@
         <v>477</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>1636</v>
+        <v>1625</v>
       </c>
       <c r="C41" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D41" s="29" t="s">
-        <v>1595</v>
+        <v>1584</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -21581,13 +21690,13 @@
         <v>478</v>
       </c>
       <c r="B42" s="28" t="s">
-        <v>1637</v>
+        <v>1626</v>
       </c>
       <c r="C42" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D42" s="29" t="s">
-        <v>1595</v>
+        <v>1584</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -21597,13 +21706,13 @@
         <v>479</v>
       </c>
       <c r="B43" s="28" t="s">
-        <v>1638</v>
+        <v>1627</v>
       </c>
       <c r="C43" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D43" s="29" t="s">
-        <v>1595</v>
+        <v>1584</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -21613,13 +21722,13 @@
         <v>480</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>1639</v>
+        <v>1628</v>
       </c>
       <c r="C44" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D44" s="29" t="s">
-        <v>1595</v>
+        <v>1584</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -21629,13 +21738,13 @@
         <v>481</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>1640</v>
+        <v>1629</v>
       </c>
       <c r="C45" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D45" s="29" t="s">
-        <v>1595</v>
+        <v>1584</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -21645,13 +21754,13 @@
         <v>482</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>1641</v>
+        <v>1630</v>
       </c>
       <c r="C46" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>1595</v>
+        <v>1584</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -21661,13 +21770,13 @@
         <v>483</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>1642</v>
+        <v>1631</v>
       </c>
       <c r="C47" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>1595</v>
+        <v>1584</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -21677,13 +21786,13 @@
         <v>484</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>1643</v>
+        <v>1632</v>
       </c>
       <c r="C48" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>1595</v>
+        <v>1584</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -21693,13 +21802,13 @@
         <v>485</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>1644</v>
+        <v>1633</v>
       </c>
       <c r="C49" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>1595</v>
+        <v>1584</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -21709,13 +21818,13 @@
         <v>486</v>
       </c>
       <c r="B50" s="28" t="s">
-        <v>1645</v>
+        <v>1634</v>
       </c>
       <c r="C50" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>1595</v>
+        <v>1584</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -21725,13 +21834,13 @@
         <v>44</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>1646</v>
+        <v>1635</v>
       </c>
       <c r="C51" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D51" s="29" t="s">
-        <v>1595</v>
+        <v>1584</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -21741,13 +21850,13 @@
         <v>487</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>1647</v>
+        <v>1636</v>
       </c>
       <c r="C52" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D52" s="29" t="s">
-        <v>1595</v>
+        <v>1584</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -21757,13 +21866,13 @@
         <v>488</v>
       </c>
       <c r="B53" s="28" t="s">
-        <v>1648</v>
+        <v>1637</v>
       </c>
       <c r="C53" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D53" s="29" t="s">
-        <v>1595</v>
+        <v>1584</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -21773,13 +21882,13 @@
         <v>489</v>
       </c>
       <c r="B54" s="28" t="s">
-        <v>1649</v>
+        <v>1638</v>
       </c>
       <c r="C54" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D54" s="29" t="s">
-        <v>1595</v>
+        <v>1584</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
@@ -21789,13 +21898,13 @@
         <v>490</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>1650</v>
+        <v>1639</v>
       </c>
       <c r="C55" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D55" s="29" t="s">
-        <v>1595</v>
+        <v>1584</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -21805,13 +21914,13 @@
         <v>491</v>
       </c>
       <c r="B56" s="28" t="s">
-        <v>1651</v>
+        <v>1640</v>
       </c>
       <c r="C56" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D56" s="29" t="s">
-        <v>1595</v>
+        <v>1584</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -21821,13 +21930,13 @@
         <v>492</v>
       </c>
       <c r="B57" s="28" t="s">
-        <v>1652</v>
+        <v>1641</v>
       </c>
       <c r="C57" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D57" s="29" t="s">
-        <v>1595</v>
+        <v>1584</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -21837,141 +21946,141 @@
         <v>493</v>
       </c>
       <c r="B58" s="28" t="s">
-        <v>1653</v>
+        <v>1642</v>
       </c>
       <c r="C58" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D58" s="29" t="s">
-        <v>1595</v>
+        <v>1584</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="27" t="s">
-        <v>1661</v>
+        <v>1650</v>
       </c>
       <c r="B59" s="28" t="s">
-        <v>1654</v>
+        <v>1643</v>
       </c>
       <c r="C59" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D59" s="29" t="s">
-        <v>1595</v>
+        <v>1584</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="27" t="s">
-        <v>1662</v>
+        <v>1651</v>
       </c>
       <c r="B60" s="28" t="s">
-        <v>1655</v>
+        <v>1644</v>
       </c>
       <c r="C60" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D60" s="29" t="s">
-        <v>1595</v>
+        <v>1584</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="27" t="s">
-        <v>1663</v>
+        <v>1652</v>
       </c>
       <c r="B61" s="28" t="s">
-        <v>1656</v>
+        <v>1645</v>
       </c>
       <c r="C61" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D61" s="29" t="s">
-        <v>1595</v>
+        <v>1584</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="27" t="s">
-        <v>1664</v>
+        <v>1653</v>
       </c>
       <c r="B62" s="28" t="s">
-        <v>1657</v>
+        <v>1646</v>
       </c>
       <c r="C62" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D62" s="29" t="s">
-        <v>1595</v>
+        <v>1584</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="27" t="s">
-        <v>1665</v>
+        <v>1654</v>
       </c>
       <c r="B63" s="28" t="s">
-        <v>1658</v>
+        <v>1647</v>
       </c>
       <c r="C63" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D63" s="29" t="s">
-        <v>1595</v>
+        <v>1584</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="27" t="s">
-        <v>1666</v>
+        <v>1655</v>
       </c>
       <c r="B64" s="28" t="s">
-        <v>1659</v>
+        <v>1648</v>
       </c>
       <c r="C64" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D64" s="29" t="s">
-        <v>1595</v>
+        <v>1584</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="27" t="s">
-        <v>1667</v>
+        <v>1656</v>
       </c>
       <c r="B65" s="28" t="s">
-        <v>1660</v>
+        <v>1649</v>
       </c>
       <c r="C65" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D65" s="29" t="s">
-        <v>1595</v>
+        <v>1584</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="27" t="s">
-        <v>1668</v>
+        <v>1657</v>
       </c>
       <c r="B66" s="28" t="s">
-        <v>1660</v>
+        <v>1649</v>
       </c>
       <c r="C66" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D66" s="29" t="s">
-        <v>1595</v>
+        <v>1584</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
@@ -22021,10 +22130,10 @@
         <v>523</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>1379</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -22131,10 +22240,10 @@
         <v>270</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="F8" t="s">
-        <v>1382</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -22270,8 +22379,8 @@
   </sheetPr>
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView topLeftCell="C64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29:F78"/>
+    <sheetView topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22299,10 +22408,10 @@
         <v>523</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>1379</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -22518,7 +22627,7 @@
         <v>1.6</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>2</v>
@@ -22718,10 +22827,10 @@
         <v>259</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="F29" t="s">
-        <v>1383</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -22901,10 +23010,10 @@
         <v>270</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="F41" t="s">
-        <v>1534</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -22921,10 +23030,10 @@
         <v>271</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="F42" t="s">
-        <v>1535</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -23029,13 +23138,13 @@
         <v>2</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F50" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -23049,13 +23158,13 @@
         <v>2</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="F51" t="s">
-        <v>1426</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -23072,10 +23181,10 @@
         <v>274</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="F52" t="s">
-        <v>1427</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -23092,10 +23201,10 @@
         <v>275</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="F53" t="s">
-        <v>1428</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -23112,10 +23221,10 @@
         <v>276</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="F54" t="s">
-        <v>1429</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -23132,10 +23241,10 @@
         <v>247</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="F55" t="s">
-        <v>1430</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -23150,10 +23259,10 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="6" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="F56" t="s">
-        <v>1431</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -23168,10 +23277,10 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="6" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="F57" t="s">
-        <v>1432</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -23188,10 +23297,10 @@
         <v>277</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="F58" t="s">
-        <v>1433</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -23208,10 +23317,10 @@
         <v>278</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="F59" t="s">
-        <v>1434</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -23228,10 +23337,10 @@
         <v>279</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="F60" t="s">
-        <v>1435</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -23248,10 +23357,10 @@
         <v>280</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="F61" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -23268,10 +23377,10 @@
         <v>281</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="F62" t="s">
-        <v>1437</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -23286,10 +23395,10 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="6" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="F63" t="s">
-        <v>1438</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -23304,10 +23413,10 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="6" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="F64" t="s">
-        <v>1439</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -23419,10 +23528,10 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="6" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="F72" t="s">
-        <v>1440</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -23437,10 +23546,10 @@
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="6" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="F73" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -23481,10 +23590,10 @@
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="6" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="F76" t="s">
-        <v>1536</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -23499,10 +23608,10 @@
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="6" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="F77" t="s">
-        <v>1537</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -23517,10 +23626,10 @@
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="6" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="F78" t="s">
-        <v>1538</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -23528,13 +23637,20 @@
         <v>17</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>181</v>
+        <v>1658</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D79" s="2"/>
-      <c r="E79" s="6"/>
+      <c r="D79" s="2" t="s">
+        <v>1659</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>1660</v>
+      </c>
+      <c r="F79" t="s">
+        <v>1661</v>
+      </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="14">
@@ -23647,10 +23763,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50:F74"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23659,11 +23775,11 @@
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="54.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="51.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="72.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>33</v>
       </c>
@@ -23677,1353 +23793,1711 @@
         <v>523</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>1379</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="14">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="31">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="14">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="31">
         <v>0.1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="14">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="31">
         <v>0.2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="14">
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="31">
         <v>0.3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="C5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="14">
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="31">
         <v>0.4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="14">
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="31">
         <v>0.5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="14">
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="31">
         <v>0.6</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="C8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="14">
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="31">
         <v>0.7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="C9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="14">
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="31">
         <v>1</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="C10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="14">
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="31">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="C11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="14">
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="31">
         <v>1.2</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="C12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="14">
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="31">
         <v>1.3</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="C13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="14">
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="31">
         <v>1.4</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="C14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="14">
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="31">
         <v>1.5</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="14">
+      <c r="C15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="31">
         <v>1.6</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="14">
+      <c r="C16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="31">
         <v>1.7</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="14">
-        <v>2</v>
-      </c>
-      <c r="B18" s="4" t="s">
+      <c r="C17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="31">
+        <v>2</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="2" t="s">
+      <c r="C18" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="14">
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="31">
         <v>2.1</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="C19" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="14">
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="31">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="2" t="s">
+      <c r="C20" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="14">
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="31">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="2" t="s">
+      <c r="C21" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="14">
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="31">
         <v>2.4</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="2" t="s">
+      <c r="C22" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="14">
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="31">
         <v>2.5</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="2" t="s">
+      <c r="C23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="14">
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="31">
         <v>2.6</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="2" t="s">
+      <c r="C24" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="14">
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="31">
         <v>2.7</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="2" t="s">
+      <c r="C25" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="14">
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="31">
         <v>3</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="2" t="s">
+      <c r="C26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="14">
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="31">
         <v>3.1</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="2" t="s">
+      <c r="C27" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="14">
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="31">
         <v>3.2</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="2" t="s">
+      <c r="C28" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="14">
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="31">
         <v>3.3</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" s="2" t="s">
+      <c r="C29" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="E29" s="6"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="14">
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="31">
         <v>3.4</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="2" t="s">
+      <c r="C30" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="E30" s="6"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="14">
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="31">
         <v>3.5</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="2" t="s">
+      <c r="C31" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="E31" s="6"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="14">
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="31">
         <v>3.6</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" s="2" t="s">
+      <c r="C32" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="E32" s="6"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="14">
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="31">
         <v>3.7</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="5" t="s">
         <v>1124</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" s="2" t="s">
+      <c r="C33" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="31">
+        <v>4</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="31">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="31">
+        <v>4.2</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="31">
+        <v>4.3</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="31">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="31">
+        <v>4.5</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="31">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="31">
+        <v>4.7</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>1146</v>
       </c>
-      <c r="E33" s="6"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="14">
-        <v>4</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D34" s="2" t="s">
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="31">
+        <v>5</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="31">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>877</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="31">
+        <v>5.2</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="31">
+        <v>5.3</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="31">
+        <v>5.4</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>880</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="31">
+        <v>5.5</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="31">
+        <v>5.6</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="31">
+        <v>5.7</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="31">
+        <v>6</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>1703</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>1674</v>
+      </c>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="31">
+        <v>6.1</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>1362</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>1435</v>
+      </c>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="31">
+        <v>6.2</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>1363</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="31">
+        <v>6.3</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="31">
+        <v>6.4</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="E54" s="32" t="s">
+        <v>1364</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>1437</v>
+      </c>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="31">
+        <v>6.5</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>1365</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>1438</v>
+      </c>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="31">
+        <v>6.6</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>1366</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>1439</v>
+      </c>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="31">
+        <v>6.7</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>1367</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>1440</v>
+      </c>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="31">
+        <v>7</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="5" t="s">
         <v>1149</v>
       </c>
-      <c r="E34" s="6"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="14">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E35" s="6"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="14">
-        <v>4.2</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="E36" s="6"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="14">
-        <v>4.3</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E37" s="6"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="14">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="E38" s="6"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="14">
-        <v>4.5</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="E39" s="6"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="14">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="E40" s="6"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="14">
-        <v>4.7</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>1148</v>
-      </c>
-      <c r="E41" s="6"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="14">
-        <v>5</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="E42" s="6"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="14">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>877</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D43" s="2" t="s">
+      <c r="E58" s="5" t="s">
+        <v>1368</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>1441</v>
+      </c>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="31">
+        <v>7.1</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>1369</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>1442</v>
+      </c>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="31">
+        <v>7.2</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>1561</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>1553</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>1557</v>
+      </c>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="31">
+        <v>7.3</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>1562</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>1554</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>1558</v>
+      </c>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="31">
+        <v>7.4</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>1555</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>1559</v>
+      </c>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="31">
+        <v>7.5</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>1564</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>1556</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>1560</v>
+      </c>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="31">
+        <v>7.6</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>1679</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>1680</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>1681</v>
+      </c>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="31">
+        <v>7.7</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="31">
+        <v>8</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>878</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="31">
+        <v>8.1</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" s="5" t="s">
         <v>1142</v>
       </c>
-      <c r="E43" s="6"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="14">
-        <v>5.2</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>879</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>1118</v>
-      </c>
-      <c r="E44" s="6"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="14">
-        <v>5.3</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>1125</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>1143</v>
-      </c>
-      <c r="E45" s="6"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="14">
-        <v>5.4</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>880</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>1145</v>
-      </c>
-      <c r="E46" s="6"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="14">
-        <v>5.5</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>1126</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>1147</v>
-      </c>
-      <c r="E47" s="6"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="14">
-        <v>5.6</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" s="6"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="14">
-        <v>5.7</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" s="6"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="14">
-        <v>6</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>1141</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>1366</v>
-      </c>
-      <c r="F50" t="s">
-        <v>1442</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="14">
-        <v>6.1</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>1140</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>1367</v>
-      </c>
-      <c r="F51" t="s">
-        <v>1443</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="14">
-        <v>6.2</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>1127</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>1368</v>
-      </c>
-      <c r="F52" t="s">
-        <v>1444</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="14">
-        <v>6.3</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>1369</v>
-      </c>
-      <c r="F53" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="14">
-        <v>6.4</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>1370</v>
-      </c>
-      <c r="F54" t="s">
-        <v>1446</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="14">
-        <v>6.5</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>1371</v>
-      </c>
-      <c r="F55" t="s">
-        <v>1447</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="14">
-        <v>6.6</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>1372</v>
-      </c>
-      <c r="F56" t="s">
-        <v>1448</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="14">
-        <v>6.7</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>1129</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D57" s="2" t="s">
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="31">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="31">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="31">
+        <v>8.4</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>961</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="31">
+        <v>8.5</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" s="5" t="s">
         <v>1150</v>
       </c>
-      <c r="E57" s="6" t="s">
-        <v>1373</v>
-      </c>
-      <c r="F57" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="14">
-        <v>7</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>1130</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D58" s="2" t="s">
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="31">
+        <v>8.6</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D72" s="5" t="s">
         <v>1151</v>
       </c>
-      <c r="E58" s="6" t="s">
-        <v>1374</v>
-      </c>
-      <c r="F58" t="s">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="14">
-        <v>7.1</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>1563</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>1375</v>
-      </c>
-      <c r="F59" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="14">
-        <v>7.2</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>1572</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>1564</v>
-      </c>
-      <c r="F60" t="s">
-        <v>1568</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="14">
-        <v>7.3</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>1573</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>1565</v>
-      </c>
-      <c r="F61" t="s">
-        <v>1569</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="14">
-        <v>7.4</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>1574</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>1566</v>
-      </c>
-      <c r="F62" t="s">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="14">
-        <v>7.5</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>1575</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>1567</v>
-      </c>
-      <c r="F63" t="s">
-        <v>1571</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="14">
-        <v>7.6</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D64" s="2"/>
-      <c r="E64" s="6"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="14">
-        <v>7.7</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>883</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D65" s="2"/>
-      <c r="E65" s="6"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="14">
-        <v>8</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>878</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D66" s="2"/>
-      <c r="E66" s="6"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="14">
-        <v>8.1</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>1131</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>1144</v>
-      </c>
-      <c r="E67" s="6"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="14">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>1132</v>
-      </c>
-      <c r="C68" s="2" t="s">
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="31">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="31">
+        <v>9</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>1682</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>1515</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>1517</v>
+      </c>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="31">
+        <v>9.1</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" s="31">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>1671</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>1665</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>1668</v>
+      </c>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" s="31">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>1672</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>1666</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>1669</v>
+      </c>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="31">
+        <v>9.4</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>1670</v>
+      </c>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="31">
+        <v>9.5</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>1685</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>1686</v>
+      </c>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="31">
+        <v>9.6</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>1688</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>1689</v>
+      </c>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="31">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>1691</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="31">
+        <v>10</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C82" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D82" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="31">
+        <v>12</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D83" s="5" t="s">
         <v>1154</v>
       </c>
-      <c r="E68" s="6"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="14">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D69" s="2" t="s">
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="31">
+        <v>16</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D84" s="5" t="s">
         <v>1155</v>
       </c>
-      <c r="E69" s="6"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="14">
-        <v>8.4</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>961</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" s="6"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="14">
-        <v>8.5</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>1134</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>1152</v>
-      </c>
-      <c r="E71" s="6"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="14">
-        <v>8.6</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>1135</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>1153</v>
-      </c>
-      <c r="E72" s="6"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="14">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" s="6"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="14">
-        <v>9</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>1525</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" s="6" t="s">
-        <v>1524</v>
-      </c>
-      <c r="F74" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="14">
-        <v>9.1</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="14">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" s="6"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="14">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" s="6"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="14">
-        <v>9.4</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" s="6"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="14">
-        <v>9.5</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" s="6"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="14">
-        <v>9.6</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" s="6"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="14">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" s="6"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="14">
-        <v>10</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="E82" s="6"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="14">
-        <v>12</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C83" s="2" t="s">
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" s="31">
+        <v>20</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C85" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D85" s="5" t="s">
+        <v>1694</v>
+      </c>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" s="31">
+        <v>24</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" s="31">
+        <v>28</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D87" s="5" t="s">
         <v>1156</v>
       </c>
-      <c r="E83" s="6"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="14">
-        <v>16</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>1137</v>
-      </c>
-      <c r="C84" s="2" t="s">
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" s="31">
+        <v>32</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" s="31">
+        <v>36</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>1695</v>
+      </c>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" s="31">
+        <v>40</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C90" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E84" s="6"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="14">
-        <v>20</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C85" s="2" t="s">
+      <c r="D90" s="5" t="s">
+        <v>1696</v>
+      </c>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" s="31">
+        <v>44</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C91" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="D85" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="E85" s="6"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="14">
-        <v>24</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>1158</v>
-      </c>
-      <c r="E86" s="6"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="14">
-        <v>28</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>1139</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>1159</v>
-      </c>
-      <c r="E87" s="6"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B88" t="s">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B89" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B90" t="s">
-        <v>1562</v>
-      </c>
+      <c r="D91" s="5" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25031,6 +25505,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <MigrationWizIdPermissions xmlns="383b0bb7-e620-4e20-ae9e-4f262a20ab07" xsi:nil="true"/>
+    <MigrationWizId xmlns="383b0bb7-e620-4e20-ae9e-4f262a20ab07" xsi:nil="true"/>
+    <MigrationWizIdVersion xmlns="383b0bb7-e620-4e20-ae9e-4f262a20ab07" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f0 xmlns="383b0bb7-e620-4e20-ae9e-4f262a20ab07" xsi:nil="true"/>
+    <TaxCatchAll xmlns="aca03388-b78c-4415-a826-d0bf4eb594c5" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="383b0bb7-e620-4e20-ae9e-4f262a20ab07">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010010850144F0DC324986F9A783986EC17C" ma:contentTypeVersion="15" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="46229f97138f5b47edc4079bd42a726f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="383b0bb7-e620-4e20-ae9e-4f262a20ab07" xmlns:ns3="aca03388-b78c-4415-a826-d0bf4eb594c5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ae1af52ebfdbb73e4aed745e1e9600f5" ns2:_="" ns3:_="">
     <xsd:import namespace="383b0bb7-e620-4e20-ae9e-4f262a20ab07"/>
@@ -25249,21 +25738,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <MigrationWizIdPermissions xmlns="383b0bb7-e620-4e20-ae9e-4f262a20ab07" xsi:nil="true"/>
-    <MigrationWizId xmlns="383b0bb7-e620-4e20-ae9e-4f262a20ab07" xsi:nil="true"/>
-    <MigrationWizIdVersion xmlns="383b0bb7-e620-4e20-ae9e-4f262a20ab07" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f0 xmlns="383b0bb7-e620-4e20-ae9e-4f262a20ab07" xsi:nil="true"/>
-    <TaxCatchAll xmlns="aca03388-b78c-4415-a826-d0bf4eb594c5" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="383b0bb7-e620-4e20-ae9e-4f262a20ab07">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -25274,6 +25748,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFE84900-1D66-40E2-A12A-E3BDA8DBE198}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="383b0bb7-e620-4e20-ae9e-4f262a20ab07"/>
+    <ds:schemaRef ds:uri="aca03388-b78c-4415-a826-d0bf4eb594c5"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F42FBFE-7A75-46D3-8582-FF1095977D3C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25292,17 +25777,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFE84900-1D66-40E2-A12A-E3BDA8DBE198}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="383b0bb7-e620-4e20-ae9e-4f262a20ab07"/>
-    <ds:schemaRef ds:uri="aca03388-b78c-4415-a826-d0bf4eb594c5"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{617A2C0A-5DB5-4DBE-AFE9-CF838D0B604D}">
   <ds:schemaRefs>

--- a/Input/reduced_filtered_AI_hmi_alarms.xlsx
+++ b/Input/reduced_filtered_AI_hmi_alarms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefano.massoletti.REGROUP\Desktop\LAVORO\Leonardo\_Generiche\Tool Nastri Leonardo\Nastrini-e-Coriandoli\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B21BF30-6E98-4342-8C79-F0D6A58B0CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319094CD-1C2A-4B8D-8634-8BE6B0F38038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" tabRatio="1000" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4074" uniqueCount="1704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4083" uniqueCount="1717">
   <si>
     <t>0.0</t>
   </si>
@@ -5165,6 +5165,45 @@
   </si>
   <si>
     <t>CAROUSEL #: Safety breaker open fault.</t>
+  </si>
+  <si>
+    <t>CAROUSEL #: Carousel motor 1 not inserted</t>
+  </si>
+  <si>
+    <t>CARROUSEL # : Moteur du carrousel 1 non inséré</t>
+  </si>
+  <si>
+    <t>CAROUSEL #: Carousel motor 2 not inserted</t>
+  </si>
+  <si>
+    <t>CARROUSEL # : Moteur du carrousel 2 non inséré</t>
+  </si>
+  <si>
+    <t>CAROUSEL #: Carousel motor 3 not inserted</t>
+  </si>
+  <si>
+    <t>CARROUSEL # : Moteur du carrousel 3 non inséré</t>
+  </si>
+  <si>
+    <t>ALL_MOT_INSERTED_1</t>
+  </si>
+  <si>
+    <t>ALL_MOT_INSERTED_2</t>
+  </si>
+  <si>
+    <t>ALL_MOT_INSERTED_3</t>
+  </si>
+  <si>
+    <t>CAROUSEL MOTOR 1 NOT INSERTED</t>
+  </si>
+  <si>
+    <t>CAROUSEL MOTOR 2 NOT INSERTED</t>
+  </si>
+  <si>
+    <t>CAROUSEL MOTOR 3 NOT INSERTED</t>
+  </si>
+  <si>
+    <t>SAFETY BREAKER 3 OFF</t>
   </si>
 </sst>
 </file>
@@ -5488,13 +5527,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal 13" xfId="3" xr:uid="{300B754C-1DDD-4291-A3F2-A1076D1FAA56}"/>
@@ -13717,12 +13756,12 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="30" t="s">
+      <c r="A84" s="32" t="s">
         <v>532</v>
       </c>
-      <c r="B84" s="30"/>
-      <c r="C84" s="30"/>
-      <c r="D84" s="30"/>
+      <c r="B84" s="32"/>
+      <c r="C84" s="32"/>
+      <c r="D84" s="32"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
@@ -23765,8 +23804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23800,7 +23839,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="31">
+      <c r="A2" s="30">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -23818,7 +23857,7 @@
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="31">
+      <c r="A3" s="30">
         <v>0.1</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -23836,7 +23875,7 @@
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="31">
+      <c r="A4" s="30">
         <v>0.2</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -23854,7 +23893,7 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="31">
+      <c r="A5" s="30">
         <v>0.3</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -23872,7 +23911,7 @@
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="31">
+      <c r="A6" s="30">
         <v>0.4</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -23890,7 +23929,7 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="31">
+      <c r="A7" s="30">
         <v>0.5</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -23908,7 +23947,7 @@
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="31">
+      <c r="A8" s="30">
         <v>0.6</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -23926,7 +23965,7 @@
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="31">
+      <c r="A9" s="30">
         <v>0.7</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -23944,7 +23983,7 @@
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="31">
+      <c r="A10" s="30">
         <v>1</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -23962,7 +24001,7 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="31">
+      <c r="A11" s="30">
         <v>1.1000000000000001</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -23980,7 +24019,7 @@
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="31">
+      <c r="A12" s="30">
         <v>1.2</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -23998,7 +24037,7 @@
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="31">
+      <c r="A13" s="30">
         <v>1.3</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -24016,7 +24055,7 @@
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="31">
+      <c r="A14" s="30">
         <v>1.4</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -24034,7 +24073,7 @@
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="31">
+      <c r="A15" s="30">
         <v>1.5</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -24050,7 +24089,7 @@
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="31">
+      <c r="A16" s="30">
         <v>1.6</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -24066,7 +24105,7 @@
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="31">
+      <c r="A17" s="30">
         <v>1.7</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -24082,7 +24121,7 @@
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="31">
+      <c r="A18" s="30">
         <v>2</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -24100,7 +24139,7 @@
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="31">
+      <c r="A19" s="30">
         <v>2.1</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -24118,7 +24157,7 @@
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="31">
+      <c r="A20" s="30">
         <v>2.2000000000000002</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -24136,7 +24175,7 @@
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="31">
+      <c r="A21" s="30">
         <v>2.2999999999999998</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -24154,7 +24193,7 @@
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="31">
+      <c r="A22" s="30">
         <v>2.4</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -24172,7 +24211,7 @@
       <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="31">
+      <c r="A23" s="30">
         <v>2.5</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -24190,7 +24229,7 @@
       <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="31">
+      <c r="A24" s="30">
         <v>2.6</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -24208,7 +24247,7 @@
       <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="31">
+      <c r="A25" s="30">
         <v>2.7</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -24226,7 +24265,7 @@
       <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="31">
+      <c r="A26" s="30">
         <v>3</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -24244,7 +24283,7 @@
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="31">
+      <c r="A27" s="30">
         <v>3.1</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -24262,7 +24301,7 @@
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="31">
+      <c r="A28" s="30">
         <v>3.2</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -24280,7 +24319,7 @@
       <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="31">
+      <c r="A29" s="30">
         <v>3.3</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -24298,7 +24337,7 @@
       <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="31">
+      <c r="A30" s="30">
         <v>3.4</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -24316,7 +24355,7 @@
       <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="31">
+      <c r="A31" s="30">
         <v>3.5</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -24334,7 +24373,7 @@
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="31">
+      <c r="A32" s="30">
         <v>3.6</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -24352,7 +24391,7 @@
       <c r="H32" s="5"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="31">
+      <c r="A33" s="30">
         <v>3.7</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -24370,7 +24409,7 @@
       <c r="H33" s="5"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="31">
+      <c r="A34" s="30">
         <v>4</v>
       </c>
       <c r="B34" s="5" t="s">
@@ -24388,7 +24427,7 @@
       <c r="H34" s="5"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="31">
+      <c r="A35" s="30">
         <v>4.0999999999999996</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -24406,7 +24445,7 @@
       <c r="H35" s="5"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="31">
+      <c r="A36" s="30">
         <v>4.2</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -24424,7 +24463,7 @@
       <c r="H36" s="5"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="31">
+      <c r="A37" s="30">
         <v>4.3</v>
       </c>
       <c r="B37" s="5" t="s">
@@ -24442,7 +24481,7 @@
       <c r="H37" s="5"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="31">
+      <c r="A38" s="30">
         <v>4.4000000000000004</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -24460,7 +24499,7 @@
       <c r="H38" s="5"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="31">
+      <c r="A39" s="30">
         <v>4.5</v>
       </c>
       <c r="B39" s="5" t="s">
@@ -24478,7 +24517,7 @@
       <c r="H39" s="5"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="31">
+      <c r="A40" s="30">
         <v>4.5999999999999996</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -24496,7 +24535,7 @@
       <c r="H40" s="5"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="31">
+      <c r="A41" s="30">
         <v>4.7</v>
       </c>
       <c r="B41" s="5" t="s">
@@ -24514,7 +24553,7 @@
       <c r="H41" s="5"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="31">
+      <c r="A42" s="30">
         <v>5</v>
       </c>
       <c r="B42" s="5" t="s">
@@ -24532,7 +24571,7 @@
       <c r="H42" s="5"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="31">
+      <c r="A43" s="30">
         <v>5.0999999999999996</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -24550,7 +24589,7 @@
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="31">
+      <c r="A44" s="30">
         <v>5.2</v>
       </c>
       <c r="B44" s="5" t="s">
@@ -24568,7 +24607,7 @@
       <c r="H44" s="5"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="31">
+      <c r="A45" s="30">
         <v>5.3</v>
       </c>
       <c r="B45" s="5" t="s">
@@ -24586,7 +24625,7 @@
       <c r="H45" s="5"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="31">
+      <c r="A46" s="30">
         <v>5.4</v>
       </c>
       <c r="B46" s="5" t="s">
@@ -24604,7 +24643,7 @@
       <c r="H46" s="5"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="31">
+      <c r="A47" s="30">
         <v>5.5</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -24622,39 +24661,51 @@
       <c r="H47" s="5"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="31">
+      <c r="A48" s="30">
         <v>5.6</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>150</v>
+        <v>1710</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
+      <c r="D48" s="5" t="s">
+        <v>1713</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>1704</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>1705</v>
+      </c>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="31">
+      <c r="A49" s="30">
         <v>5.7</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>151</v>
+        <v>1711</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
+      <c r="D49" s="5" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>1707</v>
+      </c>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="31">
+      <c r="A50" s="30">
         <v>6</v>
       </c>
       <c r="B50" s="5" t="s">
@@ -24676,7 +24727,7 @@
       <c r="H50" s="5"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="31">
+      <c r="A51" s="30">
         <v>6.1</v>
       </c>
       <c r="B51" s="5" t="s">
@@ -24698,7 +24749,7 @@
       <c r="H51" s="5"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="31">
+      <c r="A52" s="30">
         <v>6.2</v>
       </c>
       <c r="B52" s="5" t="s">
@@ -24720,7 +24771,7 @@
       <c r="H52" s="5"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="31">
+      <c r="A53" s="30">
         <v>6.3</v>
       </c>
       <c r="B53" s="5" t="s">
@@ -24742,7 +24793,7 @@
       <c r="H53" s="5"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="31">
+      <c r="A54" s="30">
         <v>6.4</v>
       </c>
       <c r="B54" s="5" t="s">
@@ -24754,7 +24805,7 @@
       <c r="D54" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="E54" s="32" t="s">
+      <c r="E54" s="31" t="s">
         <v>1364</v>
       </c>
       <c r="F54" s="5" t="s">
@@ -24764,7 +24815,7 @@
       <c r="H54" s="5"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="31">
+      <c r="A55" s="30">
         <v>6.5</v>
       </c>
       <c r="B55" s="5" t="s">
@@ -24786,7 +24837,7 @@
       <c r="H55" s="5"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="31">
+      <c r="A56" s="30">
         <v>6.6</v>
       </c>
       <c r="B56" s="5" t="s">
@@ -24808,7 +24859,7 @@
       <c r="H56" s="5"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="31">
+      <c r="A57" s="30">
         <v>6.7</v>
       </c>
       <c r="B57" s="5" t="s">
@@ -24830,7 +24881,7 @@
       <c r="H57" s="5"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="31">
+      <c r="A58" s="30">
         <v>7</v>
       </c>
       <c r="B58" s="5" t="s">
@@ -24852,7 +24903,7 @@
       <c r="H58" s="5"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="31">
+      <c r="A59" s="30">
         <v>7.1</v>
       </c>
       <c r="B59" s="5" t="s">
@@ -24874,7 +24925,7 @@
       <c r="H59" s="5"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="31">
+      <c r="A60" s="30">
         <v>7.2</v>
       </c>
       <c r="B60" s="5" t="s">
@@ -24896,7 +24947,7 @@
       <c r="H60" s="5"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="31">
+      <c r="A61" s="30">
         <v>7.3</v>
       </c>
       <c r="B61" s="5" t="s">
@@ -24918,7 +24969,7 @@
       <c r="H61" s="5"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="31">
+      <c r="A62" s="30">
         <v>7.4</v>
       </c>
       <c r="B62" s="5" t="s">
@@ -24940,7 +24991,7 @@
       <c r="H62" s="5"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="31">
+      <c r="A63" s="30">
         <v>7.5</v>
       </c>
       <c r="B63" s="5" t="s">
@@ -24962,7 +25013,7 @@
       <c r="H63" s="5"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="31">
+      <c r="A64" s="30">
         <v>7.6</v>
       </c>
       <c r="B64" s="5" t="s">
@@ -24984,7 +25035,7 @@
       <c r="H64" s="5"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="31">
+      <c r="A65" s="30">
         <v>7.7</v>
       </c>
       <c r="B65" s="5" t="s">
@@ -25000,7 +25051,7 @@
       <c r="H65" s="5"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="31">
+      <c r="A66" s="30">
         <v>8</v>
       </c>
       <c r="B66" s="5" t="s">
@@ -25016,7 +25067,7 @@
       <c r="H66" s="5"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="31">
+      <c r="A67" s="30">
         <v>8.1</v>
       </c>
       <c r="B67" s="5" t="s">
@@ -25034,7 +25085,7 @@
       <c r="H67" s="5"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="31">
+      <c r="A68" s="30">
         <v>8.1999999999999993</v>
       </c>
       <c r="B68" s="5" t="s">
@@ -25052,7 +25103,7 @@
       <c r="H68" s="5"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="31">
+      <c r="A69" s="30">
         <v>8.3000000000000007</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -25070,7 +25121,7 @@
       <c r="H69" s="5"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="31">
+      <c r="A70" s="30">
         <v>8.4</v>
       </c>
       <c r="B70" s="5" t="s">
@@ -25086,7 +25137,7 @@
       <c r="H70" s="5"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="31">
+      <c r="A71" s="30">
         <v>8.5</v>
       </c>
       <c r="B71" s="5" t="s">
@@ -25104,7 +25155,7 @@
       <c r="H71" s="5"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="31">
+      <c r="A72" s="30">
         <v>8.6</v>
       </c>
       <c r="B72" s="5" t="s">
@@ -25122,23 +25173,29 @@
       <c r="H72" s="5"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="31">
+      <c r="A73" s="30">
         <v>8.6999999999999993</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>175</v>
+        <v>1712</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
+      <c r="D73" s="5" t="s">
+        <v>1715</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>1708</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>1709</v>
+      </c>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="31">
+      <c r="A74" s="30">
         <v>9</v>
       </c>
       <c r="B74" s="5" t="s">
@@ -25160,7 +25217,7 @@
       <c r="H74" s="5"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="31">
+      <c r="A75" s="30">
         <v>9.1</v>
       </c>
       <c r="B75" s="5" t="s">
@@ -25170,7 +25227,7 @@
         <v>2</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>1142</v>
+        <v>1716</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
@@ -25178,7 +25235,7 @@
       <c r="H75" s="5"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="31">
+      <c r="A76" s="30">
         <v>9.1999999999999993</v>
       </c>
       <c r="B76" s="5" t="s">
@@ -25200,7 +25257,7 @@
       <c r="H76" s="5"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="31">
+      <c r="A77" s="30">
         <v>9.3000000000000007</v>
       </c>
       <c r="B77" s="5" t="s">
@@ -25222,7 +25279,7 @@
       <c r="H77" s="5"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="31">
+      <c r="A78" s="30">
         <v>9.4</v>
       </c>
       <c r="B78" s="5" t="s">
@@ -25244,7 +25301,7 @@
       <c r="H78" s="5"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="31">
+      <c r="A79" s="30">
         <v>9.5</v>
       </c>
       <c r="B79" s="5" t="s">
@@ -25266,7 +25323,7 @@
       <c r="H79" s="5"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="31">
+      <c r="A80" s="30">
         <v>9.6</v>
       </c>
       <c r="B80" s="5" t="s">
@@ -25288,7 +25345,7 @@
       <c r="H80" s="5"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="31">
+      <c r="A81" s="30">
         <v>9.6999999999999993</v>
       </c>
       <c r="B81" s="5" t="s">
@@ -25310,7 +25367,7 @@
       <c r="H81" s="5"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="31">
+      <c r="A82" s="30">
         <v>10</v>
       </c>
       <c r="B82" s="5" t="s">
@@ -25328,7 +25385,7 @@
       <c r="H82" s="5"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" s="31">
+      <c r="A83" s="30">
         <v>12</v>
       </c>
       <c r="B83" s="5" t="s">
@@ -25346,7 +25403,7 @@
       <c r="H83" s="5"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="31">
+      <c r="A84" s="30">
         <v>16</v>
       </c>
       <c r="B84" s="5" t="s">
@@ -25364,7 +25421,7 @@
       <c r="H84" s="5"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" s="31">
+      <c r="A85" s="30">
         <v>20</v>
       </c>
       <c r="B85" s="5" t="s">
@@ -25382,7 +25439,7 @@
       <c r="H85" s="5"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="31">
+      <c r="A86" s="30">
         <v>24</v>
       </c>
       <c r="B86" s="5" t="s">
@@ -25400,7 +25457,7 @@
       <c r="H86" s="5"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="31">
+      <c r="A87" s="30">
         <v>28</v>
       </c>
       <c r="B87" s="5" t="s">
@@ -25418,7 +25475,7 @@
       <c r="H87" s="5"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="31">
+      <c r="A88" s="30">
         <v>32</v>
       </c>
       <c r="B88" s="5" t="s">
@@ -25436,7 +25493,7 @@
       <c r="H88" s="5"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="31">
+      <c r="A89" s="30">
         <v>36</v>
       </c>
       <c r="B89" s="5" t="s">
@@ -25454,7 +25511,7 @@
       <c r="H89" s="5"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="31">
+      <c r="A90" s="30">
         <v>40</v>
       </c>
       <c r="B90" s="5" t="s">
@@ -25472,7 +25529,7 @@
       <c r="H90" s="5"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="31">
+      <c r="A91" s="30">
         <v>44</v>
       </c>
       <c r="B91" s="5" t="s">
@@ -25520,6 +25577,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010010850144F0DC324986F9A783986EC17C" ma:contentTypeVersion="15" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="46229f97138f5b47edc4079bd42a726f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="383b0bb7-e620-4e20-ae9e-4f262a20ab07" xmlns:ns3="aca03388-b78c-4415-a826-d0bf4eb594c5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ae1af52ebfdbb73e4aed745e1e9600f5" ns2:_="" ns3:_="">
     <xsd:import namespace="383b0bb7-e620-4e20-ae9e-4f262a20ab07"/>
@@ -25738,15 +25804,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFE84900-1D66-40E2-A12A-E3BDA8DBE198}">
   <ds:schemaRefs>
@@ -25759,6 +25816,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{617A2C0A-5DB5-4DBE-AFE9-CF838D0B604D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F42FBFE-7A75-46D3-8582-FF1095977D3C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25775,12 +25840,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{617A2C0A-5DB5-4DBE-AFE9-CF838D0B604D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Input/reduced_filtered_AI_hmi_alarms.xlsx
+++ b/Input/reduced_filtered_AI_hmi_alarms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefano.massoletti.REGROUP\Desktop\LAVORO\Leonardo\_Generiche\Tool Nastri Leonardo\Nastrini-e-Coriandoli\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319094CD-1C2A-4B8D-8634-8BE6B0F38038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0C8C46-50E0-4CAC-98B6-4FBE44A136E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" tabRatio="1000" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4141,30 +4141,6 @@
     <t xml:space="preserve">SWIVEL #: Disk not ready to move. </t>
   </si>
   <si>
-    <t>CAROUSEL #: Inverter 1 fault detected.</t>
-  </si>
-  <si>
-    <t>CAROUSEL #: Inverter 2 fault detected.</t>
-  </si>
-  <si>
-    <t>CAROUSEL #: Command actuation failure.</t>
-  </si>
-  <si>
-    <t>CAROUSEL #: Encoder fault detected.</t>
-  </si>
-  <si>
-    <t>CAROUSEL #: External fault signal detected.</t>
-  </si>
-  <si>
-    <t>CAROUSEL #: Automatic thermal protection 1 triggered.</t>
-  </si>
-  <si>
-    <t>CAROUSEL #: Automatic thermal protection 2 triggered.</t>
-  </si>
-  <si>
-    <t>CAROUSEL #: Injection photoeye malfunction.</t>
-  </si>
-  <si>
     <t>SHUTTER #: FAULT condition detected.</t>
   </si>
   <si>
@@ -4360,30 +4336,6 @@
     <t>CONVOYEUR #: Défaut du capteur photoélectrique 5.</t>
   </si>
   <si>
-    <t>CARROUSEL #: Défaut onduleur 1 détecté.</t>
-  </si>
-  <si>
-    <t>CARROUSEL #: Défaut onduleur 2 détecté.</t>
-  </si>
-  <si>
-    <t>CARROUSEL #: Défaillance d'actionnement de commande.</t>
-  </si>
-  <si>
-    <t>CARROUSEL #: Défaut codeur détecté.</t>
-  </si>
-  <si>
-    <t>CARROUSEL #: Signal de défaut externe détecté.</t>
-  </si>
-  <si>
-    <t>CARROUSEL #: Protection thermique automatique 1 déclenchée.</t>
-  </si>
-  <si>
-    <t>CARROUSEL #: Protection thermique automatique 2 déclenchée.</t>
-  </si>
-  <si>
-    <t>CARROUSEL #: Dysfonctionnement de la cellule photoélectrique d'injection.</t>
-  </si>
-  <si>
     <t>SLIPWAY #: Défaut de cellule photoélectrique de sortie détecté.</t>
   </si>
   <si>
@@ -4600,15 +4552,9 @@
     <t>DÉVIATEUR #: Défaut cellule photoélectrique 3.</t>
   </si>
   <si>
-    <t>CAROUSEL #: Carousel completely full</t>
-  </si>
-  <si>
     <t>ALL_COMPLETELY_FULL</t>
   </si>
   <si>
-    <t>CAROUSEL #: Carrousel complètement plein</t>
-  </si>
-  <si>
     <t>ALL_COMM_FLT</t>
   </si>
   <si>
@@ -4714,30 +4660,6 @@
     <t>INJECTION FOTOCEL FAULT</t>
   </si>
   <si>
-    <t>CAROUSEL #: Entry photocell failure</t>
-  </si>
-  <si>
-    <t>CAROUSEL #: Photocell 1 failure</t>
-  </si>
-  <si>
-    <t>CAROUSEL #: Photocell 2 failure</t>
-  </si>
-  <si>
-    <t>CAROUSEL #: Photocell 3 failure</t>
-  </si>
-  <si>
-    <t>CARROUSEL #: Défaut cellule photocellule entrée</t>
-  </si>
-  <si>
-    <t>CARROUSEL #: Défaut cellule photocellule 1</t>
-  </si>
-  <si>
-    <t>CARROUSEL #: Défaut cellule photocellule 2</t>
-  </si>
-  <si>
-    <t>CARROUSEL #: Défaut cellule photocellule 3</t>
-  </si>
-  <si>
     <t>ENTRY PHOTOCELL FAILURE</t>
   </si>
   <si>
@@ -5050,24 +4972,6 @@
     <t>ALL_LOCAL_SELECTOR_M3</t>
   </si>
   <si>
-    <t>CAROUSEL #: Motor 1 - Local key selector</t>
-  </si>
-  <si>
-    <t>CAROUSEL #: Motor 2 - Local key selector</t>
-  </si>
-  <si>
-    <t>CAROUSEL #: Motor 3 - Local key selector</t>
-  </si>
-  <si>
-    <t>CAROUSEL # : Moteur 1 - Sélecteur à clé locale</t>
-  </si>
-  <si>
-    <t>CAROUSEL # : Moteur 2 - Sélecteur à clé locale</t>
-  </si>
-  <si>
-    <t>CAROUSEL # : Moteur 3 - Sélecteur à clé locale</t>
-  </si>
-  <si>
     <t>MOTOR 1: LOCAL SELECTOR  KEY ON</t>
   </si>
   <si>
@@ -5077,30 +4981,15 @@
     <t>MOTOR 3: LOCAL SELECTOR  KEY ON</t>
   </si>
   <si>
-    <t>CARROUSEL #: Défaut disjoncteur de sécurité ouvert.</t>
-  </si>
-  <si>
     <t>ALL_INV_3</t>
   </si>
   <si>
-    <t>CAROUSEL #: Inverter 3 fault detected.</t>
-  </si>
-  <si>
-    <t>CARROUSEL #: Défaut onduleur 3 détecté.</t>
-  </si>
-  <si>
     <t>ALL_EOK_3</t>
   </si>
   <si>
     <t>AUTOMATIC TERMIC 3 FAULT</t>
   </si>
   <si>
-    <t>CAROUSEL #: Automatic thermal protection 3 triggered.</t>
-  </si>
-  <si>
-    <t>CARROUSEL #: Protection thermique automatique 3 déclenchée.</t>
-  </si>
-  <si>
     <t>CAROUSEL COMPLETELY FULL</t>
   </si>
   <si>
@@ -5110,30 +4999,12 @@
     <t>ALL_INT_AUT_1</t>
   </si>
   <si>
-    <t>CAROUSEL #: Motor 1 - Safety switch open fault.</t>
-  </si>
-  <si>
-    <t>CAROUSEL # : Moteur 1 - Défaut d'ouverture de l'interrupteur de sécurité.</t>
-  </si>
-  <si>
     <t>ALL_INT_AUT_2</t>
   </si>
   <si>
-    <t>CAROUSEL #: Motor 2- Safety switch open fault.</t>
-  </si>
-  <si>
-    <t>CAROUSEL # : Moteur 2 - Défaut d'ouverture de l'interrupteur de sécurité.</t>
-  </si>
-  <si>
     <t>ALL_INT_AUT_3</t>
   </si>
   <si>
-    <t>CAROUSEL #: Motor 3 - Safety switch open fault.</t>
-  </si>
-  <si>
-    <t>CAROUSEL # : Moteur 3 - Défaut d'ouverture de l'interrupteur de sécurité.</t>
-  </si>
-  <si>
     <t>HOUR_COUNTER_M3</t>
   </si>
   <si>
@@ -5164,27 +5035,6 @@
     <t>PCE #: Defaut de communication</t>
   </si>
   <si>
-    <t>CAROUSEL #: Safety breaker open fault.</t>
-  </si>
-  <si>
-    <t>CAROUSEL #: Carousel motor 1 not inserted</t>
-  </si>
-  <si>
-    <t>CARROUSEL # : Moteur du carrousel 1 non inséré</t>
-  </si>
-  <si>
-    <t>CAROUSEL #: Carousel motor 2 not inserted</t>
-  </si>
-  <si>
-    <t>CARROUSEL # : Moteur du carrousel 2 non inséré</t>
-  </si>
-  <si>
-    <t>CAROUSEL #: Carousel motor 3 not inserted</t>
-  </si>
-  <si>
-    <t>CARROUSEL # : Moteur du carrousel 3 non inséré</t>
-  </si>
-  <si>
     <t>ALL_MOT_INSERTED_1</t>
   </si>
   <si>
@@ -5204,6 +5054,156 @@
   </si>
   <si>
     <t>SAFETY BREAKER 3 OFF</t>
+  </si>
+  <si>
+    <t>CAROUSEL : Carousel motor 1 not inserted</t>
+  </si>
+  <si>
+    <t>CARROUSEL  : Moteur du carrousel 1 non inséré</t>
+  </si>
+  <si>
+    <t>CAROUSEL : Carousel motor 2 not inserted</t>
+  </si>
+  <si>
+    <t>CARROUSEL  : Moteur du carrousel 2 non inséré</t>
+  </si>
+  <si>
+    <t>CAROUSEL : Safety breaker open fault.</t>
+  </si>
+  <si>
+    <t>CARROUSEL : Défaut disjoncteur de sécurité ouvert.</t>
+  </si>
+  <si>
+    <t>CAROUSEL : Inverter 1 fault detected.</t>
+  </si>
+  <si>
+    <t>CARROUSEL : Défaut onduleur 1 détecté.</t>
+  </si>
+  <si>
+    <t>CAROUSEL : Inverter 2 fault detected.</t>
+  </si>
+  <si>
+    <t>CARROUSEL : Défaut onduleur 2 détecté.</t>
+  </si>
+  <si>
+    <t>CAROUSEL : Inverter 3 fault detected.</t>
+  </si>
+  <si>
+    <t>CARROUSEL : Défaut onduleur 3 détecté.</t>
+  </si>
+  <si>
+    <t>CAROUSEL : Command actuation failure.</t>
+  </si>
+  <si>
+    <t>CARROUSEL : Défaillance d'actionnement de commande.</t>
+  </si>
+  <si>
+    <t>CAROUSEL : Encoder fault detected.</t>
+  </si>
+  <si>
+    <t>CARROUSEL : Défaut codeur détecté.</t>
+  </si>
+  <si>
+    <t>CAROUSEL : External fault signal detected.</t>
+  </si>
+  <si>
+    <t>CARROUSEL : Signal de défaut externe détecté.</t>
+  </si>
+  <si>
+    <t>CAROUSEL : Automatic thermal protection 1 triggered.</t>
+  </si>
+  <si>
+    <t>CARROUSEL : Protection thermique automatique 1 déclenchée.</t>
+  </si>
+  <si>
+    <t>CAROUSEL : Automatic thermal protection 2 triggered.</t>
+  </si>
+  <si>
+    <t>CARROUSEL : Protection thermique automatique 2 déclenchée.</t>
+  </si>
+  <si>
+    <t>CAROUSEL : Injection photoeye malfunction.</t>
+  </si>
+  <si>
+    <t>CARROUSEL : Dysfonctionnement de la cellule photoélectrique d'injection.</t>
+  </si>
+  <si>
+    <t>CAROUSEL : Entry photocell failure</t>
+  </si>
+  <si>
+    <t>CARROUSEL : Défaut cellule photocellule entrée</t>
+  </si>
+  <si>
+    <t>CAROUSEL : Photocell 1 failure</t>
+  </si>
+  <si>
+    <t>CARROUSEL : Défaut cellule photocellule 1</t>
+  </si>
+  <si>
+    <t>CAROUSEL : Photocell 2 failure</t>
+  </si>
+  <si>
+    <t>CARROUSEL : Défaut cellule photocellule 2</t>
+  </si>
+  <si>
+    <t>CAROUSEL : Photocell 3 failure</t>
+  </si>
+  <si>
+    <t>CARROUSEL : Défaut cellule photocellule 3</t>
+  </si>
+  <si>
+    <t>CAROUSEL : Automatic thermal protection 3 triggered.</t>
+  </si>
+  <si>
+    <t>CARROUSEL : Protection thermique automatique 3 déclenchée.</t>
+  </si>
+  <si>
+    <t>CAROUSEL : Carousel motor 3 not inserted</t>
+  </si>
+  <si>
+    <t>CARROUSEL  : Moteur du carrousel 3 non inséré</t>
+  </si>
+  <si>
+    <t>CAROUSEL : Carousel completely full</t>
+  </si>
+  <si>
+    <t>CAROUSEL : Carrousel complètement plein</t>
+  </si>
+  <si>
+    <t>CAROUSEL : Motor 1 - Local key selector</t>
+  </si>
+  <si>
+    <t>CAROUSEL  : Moteur 1 - Sélecteur à clé locale</t>
+  </si>
+  <si>
+    <t>CAROUSEL : Motor 2 - Local key selector</t>
+  </si>
+  <si>
+    <t>CAROUSEL  : Moteur 2 - Sélecteur à clé locale</t>
+  </si>
+  <si>
+    <t>CAROUSEL : Motor 3 - Local key selector</t>
+  </si>
+  <si>
+    <t>CAROUSEL  : Moteur 3 - Sélecteur à clé locale</t>
+  </si>
+  <si>
+    <t>CAROUSEL : Motor 1 - Safety switch open fault.</t>
+  </si>
+  <si>
+    <t>CAROUSEL  : Moteur 1 - Défaut d'ouverture de l'interrupteur de sécurité.</t>
+  </si>
+  <si>
+    <t>CAROUSEL : Motor 2- Safety switch open fault.</t>
+  </si>
+  <si>
+    <t>CAROUSEL  : Moteur 2 - Défaut d'ouverture de l'interrupteur de sécurité.</t>
+  </si>
+  <si>
+    <t>CAROUSEL : Motor 3 - Safety switch open fault.</t>
+  </si>
+  <si>
+    <t>CAROUSEL  : Moteur 3 - Défaut d'ouverture de l'interrupteur de sécurité.</t>
   </si>
 </sst>
 </file>
@@ -5862,7 +5862,7 @@
         <v>236</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>1371</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -5900,7 +5900,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>1698</v>
+        <v>1655</v>
       </c>
       <c r="B5" s="8">
         <v>308</v>
@@ -5911,7 +5911,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>1585</v>
+        <v>1559</v>
       </c>
       <c r="B6" s="8">
         <v>2306</v>
@@ -6065,7 +6065,7 @@
     </row>
     <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
-        <v>1528</v>
+        <v>1510</v>
       </c>
       <c r="B20" s="9">
         <v>310</v>
@@ -6115,10 +6115,10 @@
         <v>523</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>1372</v>
+        <v>1364</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>1373</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -6181,7 +6181,7 @@
         <v>1267</v>
       </c>
       <c r="F5" t="s">
-        <v>1377</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -6201,7 +6201,7 @@
         <v>1268</v>
       </c>
       <c r="F6" t="s">
-        <v>1378</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -6221,7 +6221,7 @@
         <v>1269</v>
       </c>
       <c r="F7" t="s">
-        <v>1379</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -8001,10 +8001,10 @@
         <v>523</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>1372</v>
+        <v>1364</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>1373</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -8601,7 +8601,7 @@
         <v>1271</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>1382</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -8621,7 +8621,7 @@
         <v>1270</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>1383</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -8747,7 +8747,7 @@
         <v>1272</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>1384</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -8767,7 +8767,7 @@
         <v>1273</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>1385</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -8787,7 +8787,7 @@
         <v>1274</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>1386</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -8807,7 +8807,7 @@
         <v>1275</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>1387</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -8827,7 +8827,7 @@
         <v>1276</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>1388</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -8845,7 +8845,7 @@
         <v>1277</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>1389</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -8865,7 +8865,7 @@
         <v>1278</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>1390</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -8885,7 +8885,7 @@
         <v>1279</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -8905,7 +8905,7 @@
         <v>1280</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>1392</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -8925,7 +8925,7 @@
         <v>1281</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>1393</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -8945,7 +8945,7 @@
         <v>1282</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>1394</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -8965,7 +8965,7 @@
         <v>1283</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>1395</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -8985,7 +8985,7 @@
         <v>1284</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>1396</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -9003,7 +9003,7 @@
         <v>1285</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>1397</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -9021,7 +9021,7 @@
         <v>1286</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>1398</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -9039,7 +9039,7 @@
         <v>1287</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>1399</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -9057,7 +9057,7 @@
         <v>1288</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>1400</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -9075,7 +9075,7 @@
         <v>1289</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>1401</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -9093,7 +9093,7 @@
         <v>1290</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>1402</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -9111,7 +9111,7 @@
         <v>1291</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>1403</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -9220,7 +9220,7 @@
         <v>1219</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>1404</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -9238,7 +9238,7 @@
         <v>1220</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>1405</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -9282,7 +9282,7 @@
         <v>1221</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>1406</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -9313,7 +9313,7 @@
         <v>1222</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>1380</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -9357,7 +9357,7 @@
         <v>1224</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>1381</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -10255,10 +10255,10 @@
         <v>523</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>1372</v>
+        <v>1364</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>1373</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -11054,7 +11054,7 @@
         <v>1292</v>
       </c>
       <c r="F58" t="s">
-        <v>1443</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -11074,7 +11074,7 @@
         <v>1293</v>
       </c>
       <c r="F59" t="s">
-        <v>1444</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -11094,7 +11094,7 @@
         <v>1294</v>
       </c>
       <c r="F60" t="s">
-        <v>1445</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -11114,7 +11114,7 @@
         <v>1295</v>
       </c>
       <c r="F61" t="s">
-        <v>1446</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -11134,7 +11134,7 @@
         <v>1296</v>
       </c>
       <c r="F62" t="s">
-        <v>1447</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -11154,7 +11154,7 @@
         <v>1297</v>
       </c>
       <c r="F63" t="s">
-        <v>1448</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -11174,7 +11174,7 @@
         <v>1298</v>
       </c>
       <c r="F64" t="s">
-        <v>1449</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -11491,10 +11491,10 @@
         <v>523</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>1372</v>
+        <v>1364</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>1373</v>
+        <v>1365</v>
       </c>
       <c r="G1" s="6"/>
     </row>
@@ -11658,7 +11658,7 @@
         <v>1299</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>1450</v>
+        <v>1434</v>
       </c>
       <c r="G11" s="6"/>
     </row>
@@ -11679,7 +11679,7 @@
         <v>1300</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>1451</v>
+        <v>1435</v>
       </c>
       <c r="G12" s="6"/>
     </row>
@@ -11700,7 +11700,7 @@
         <v>1301</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>1452</v>
+        <v>1436</v>
       </c>
       <c r="G13" s="6"/>
     </row>
@@ -11721,7 +11721,7 @@
         <v>1302</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>1453</v>
+        <v>1437</v>
       </c>
       <c r="G14" s="6"/>
     </row>
@@ -11933,10 +11933,10 @@
         <v>523</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>1372</v>
+        <v>1364</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>1373</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -12024,7 +12024,7 @@
         <v>1303</v>
       </c>
       <c r="F6" t="s">
-        <v>1454</v>
+        <v>1438</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -12046,7 +12046,7 @@
         <v>1304</v>
       </c>
       <c r="F7" t="s">
-        <v>1455</v>
+        <v>1439</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -12068,7 +12068,7 @@
         <v>1305</v>
       </c>
       <c r="F8" t="s">
-        <v>1456</v>
+        <v>1440</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -12090,7 +12090,7 @@
         <v>1306</v>
       </c>
       <c r="F9" t="s">
-        <v>1457</v>
+        <v>1441</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -12112,7 +12112,7 @@
         <v>1307</v>
       </c>
       <c r="F10" t="s">
-        <v>1458</v>
+        <v>1442</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -12134,7 +12134,7 @@
         <v>1308</v>
       </c>
       <c r="F11" t="s">
-        <v>1459</v>
+        <v>1443</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -12225,10 +12225,10 @@
         <v>523</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>1372</v>
+        <v>1364</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>1373</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -12306,7 +12306,7 @@
         <v>1309</v>
       </c>
       <c r="F6" t="s">
-        <v>1460</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -12494,7 +12494,7 @@
         <v>1310</v>
       </c>
       <c r="F19" t="s">
-        <v>1461</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -12514,7 +12514,7 @@
         <v>1311</v>
       </c>
       <c r="F20" t="s">
-        <v>1462</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -12534,7 +12534,7 @@
         <v>1312</v>
       </c>
       <c r="F21" t="s">
-        <v>1463</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -12554,7 +12554,7 @@
         <v>1313</v>
       </c>
       <c r="F22" t="s">
-        <v>1464</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -12574,7 +12574,7 @@
         <v>1314</v>
       </c>
       <c r="F23" t="s">
-        <v>1465</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -12592,7 +12592,7 @@
         <v>1315</v>
       </c>
       <c r="F24" t="s">
-        <v>1466</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -12680,10 +12680,10 @@
         <v>523</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>1372</v>
+        <v>1364</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>1373</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -12866,7 +12866,7 @@
         <v>1316</v>
       </c>
       <c r="F13" t="s">
-        <v>1467</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -13192,7 +13192,7 @@
         <v>1317</v>
       </c>
       <c r="F37" t="s">
-        <v>1468</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -13212,7 +13212,7 @@
         <v>1318</v>
       </c>
       <c r="F38" t="s">
-        <v>1469</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -13232,7 +13232,7 @@
         <v>1319</v>
       </c>
       <c r="F39" t="s">
-        <v>1470</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -13252,7 +13252,7 @@
         <v>1320</v>
       </c>
       <c r="F40" t="s">
-        <v>1471</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -13272,7 +13272,7 @@
         <v>1321</v>
       </c>
       <c r="F41" t="s">
-        <v>1472</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -13292,7 +13292,7 @@
         <v>1322</v>
       </c>
       <c r="F42" t="s">
-        <v>1473</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -13312,7 +13312,7 @@
         <v>1323</v>
       </c>
       <c r="F43" t="s">
-        <v>1474</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -13332,7 +13332,7 @@
         <v>1324</v>
       </c>
       <c r="F44" t="s">
-        <v>1475</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -13352,7 +13352,7 @@
         <v>1325</v>
       </c>
       <c r="F45" t="s">
-        <v>1476</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -13372,7 +13372,7 @@
         <v>1326</v>
       </c>
       <c r="F46" t="s">
-        <v>1477</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -13392,7 +13392,7 @@
         <v>1327</v>
       </c>
       <c r="F47" t="s">
-        <v>1478</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -13412,7 +13412,7 @@
         <v>1328</v>
       </c>
       <c r="F48" t="s">
-        <v>1479</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -13432,7 +13432,7 @@
         <v>1329</v>
       </c>
       <c r="F49" t="s">
-        <v>1480</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -13452,7 +13452,7 @@
         <v>1330</v>
       </c>
       <c r="F50" t="s">
-        <v>1481</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -13472,7 +13472,7 @@
         <v>1331</v>
       </c>
       <c r="F51" t="s">
-        <v>1482</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -13492,7 +13492,7 @@
         <v>1332</v>
       </c>
       <c r="F52" t="s">
-        <v>1483</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -13512,7 +13512,7 @@
         <v>1333</v>
       </c>
       <c r="F53" t="s">
-        <v>1484</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -13532,7 +13532,7 @@
         <v>1334</v>
       </c>
       <c r="F54" t="s">
-        <v>1485</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -13552,7 +13552,7 @@
         <v>1335</v>
       </c>
       <c r="F55" t="s">
-        <v>1486</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -13572,7 +13572,7 @@
         <v>1336</v>
       </c>
       <c r="F56" t="s">
-        <v>1487</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -13592,7 +13592,7 @@
         <v>1337</v>
       </c>
       <c r="F57" t="s">
-        <v>1488</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -13612,7 +13612,7 @@
         <v>1338</v>
       </c>
       <c r="F58" t="s">
-        <v>1489</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -13632,7 +13632,7 @@
         <v>1339</v>
       </c>
       <c r="F59" t="s">
-        <v>1490</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -13652,7 +13652,7 @@
         <v>1340</v>
       </c>
       <c r="F60" t="s">
-        <v>1491</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -13672,7 +13672,7 @@
         <v>1341</v>
       </c>
       <c r="F61" t="s">
-        <v>1492</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -13692,7 +13692,7 @@
         <v>1342</v>
       </c>
       <c r="F62" t="s">
-        <v>1493</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -13712,7 +13712,7 @@
         <v>1343</v>
       </c>
       <c r="F63" t="s">
-        <v>1494</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -13732,7 +13732,7 @@
         <v>1344</v>
       </c>
       <c r="F64" t="s">
-        <v>1495</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -13752,7 +13752,7 @@
         <v>1345</v>
       </c>
       <c r="F65" t="s">
-        <v>1496</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -13927,10 +13927,10 @@
         <v>523</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>1372</v>
+        <v>1364</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>1373</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -14259,7 +14259,7 @@
         <v>1346</v>
       </c>
       <c r="F23" t="s">
-        <v>1503</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -14661,7 +14661,7 @@
         <v>1351</v>
       </c>
       <c r="F50" t="s">
-        <v>1504</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -14681,7 +14681,7 @@
         <v>1352</v>
       </c>
       <c r="F51" t="s">
-        <v>1505</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -14701,7 +14701,7 @@
         <v>1353</v>
       </c>
       <c r="F52" t="s">
-        <v>1506</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -14721,7 +14721,7 @@
         <v>1354</v>
       </c>
       <c r="F53" t="s">
-        <v>1507</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -14741,7 +14741,7 @@
         <v>1355</v>
       </c>
       <c r="F54" t="s">
-        <v>1508</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -14761,7 +14761,7 @@
         <v>1356</v>
       </c>
       <c r="F55" t="s">
-        <v>1509</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -14781,7 +14781,7 @@
         <v>1357</v>
       </c>
       <c r="F56" t="s">
-        <v>1510</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -14829,7 +14829,7 @@
         <v>1347</v>
       </c>
       <c r="F59" t="s">
-        <v>1511</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -14849,7 +14849,7 @@
         <v>1348</v>
       </c>
       <c r="F60" t="s">
-        <v>1512</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -14869,7 +14869,7 @@
         <v>1349</v>
       </c>
       <c r="F61" t="s">
-        <v>1513</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -14889,7 +14889,7 @@
         <v>1350</v>
       </c>
       <c r="F62" t="s">
-        <v>1514</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -15225,10 +15225,10 @@
         <v>523</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>1372</v>
+        <v>1364</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>1373</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -15470,7 +15470,7 @@
         <v>1225</v>
       </c>
       <c r="F18" t="s">
-        <v>1497</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -15490,7 +15490,7 @@
         <v>1358</v>
       </c>
       <c r="F19" t="s">
-        <v>1498</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -15719,10 +15719,10 @@
         <v>523</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>1372</v>
+        <v>1364</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>1373</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -15857,7 +15857,7 @@
         <v>1359</v>
       </c>
       <c r="F10" t="s">
-        <v>1499</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -15877,7 +15877,7 @@
         <v>1360</v>
       </c>
       <c r="F11" t="s">
-        <v>1500</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -15897,7 +15897,7 @@
         <v>1361</v>
       </c>
       <c r="F12" t="s">
-        <v>1501</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -16189,10 +16189,10 @@
         <v>523</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>1372</v>
+        <v>1364</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>1373</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -16225,7 +16225,7 @@
         <v>1257</v>
       </c>
       <c r="F3" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -16433,7 +16433,7 @@
         <v>1250</v>
       </c>
       <c r="F18" t="s">
-        <v>1407</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -16453,7 +16453,7 @@
         <v>1251</v>
       </c>
       <c r="F19" t="s">
-        <v>1408</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -16473,7 +16473,7 @@
         <v>1252</v>
       </c>
       <c r="F20" t="s">
-        <v>1409</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -16493,7 +16493,7 @@
         <v>1253</v>
       </c>
       <c r="F21" t="s">
-        <v>1410</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -16513,7 +16513,7 @@
         <v>1254</v>
       </c>
       <c r="F22" t="s">
-        <v>1411</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -16533,7 +16533,7 @@
         <v>1255</v>
       </c>
       <c r="F23" t="s">
-        <v>1412</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -16553,7 +16553,7 @@
         <v>1256</v>
       </c>
       <c r="F24" t="s">
-        <v>1413</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -18653,10 +18653,10 @@
         <v>523</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>1372</v>
+        <v>1364</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>1373</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -18703,10 +18703,10 @@
         <v>1163</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>1370</v>
+        <v>1362</v>
       </c>
       <c r="F4" t="s">
-        <v>1502</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -18923,10 +18923,10 @@
         <v>523</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>1372</v>
+        <v>1364</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>1373</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -18934,19 +18934,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1532</v>
+        <v>1514</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1529</v>
+        <v>1511</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>1543</v>
+        <v>1525</v>
       </c>
       <c r="F2" t="s">
-        <v>1546</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -18954,19 +18954,19 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1533</v>
+        <v>1515</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1530</v>
+        <v>1512</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>1544</v>
+        <v>1526</v>
       </c>
       <c r="F3" t="s">
-        <v>1547</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -18974,19 +18974,19 @@
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1534</v>
+        <v>1516</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1531</v>
+        <v>1513</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>1545</v>
+        <v>1527</v>
       </c>
       <c r="F4" t="s">
-        <v>1548</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -18994,7 +18994,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1535</v>
+        <v>1517</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>2</v>
@@ -19007,7 +19007,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1536</v>
+        <v>1518</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>2</v>
@@ -19020,7 +19020,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1537</v>
+        <v>1519</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
@@ -19033,7 +19033,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1538</v>
+        <v>1520</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>2</v>
@@ -19046,7 +19046,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1539</v>
+        <v>1521</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
@@ -19059,7 +19059,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1540</v>
+        <v>1522</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>2</v>
@@ -19072,7 +19072,7 @@
         <v>19</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1541</v>
+        <v>1523</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>2</v>
@@ -19085,7 +19085,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1542</v>
+        <v>1524</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>2</v>
@@ -19199,10 +19199,10 @@
         <v>523</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>1372</v>
+        <v>1364</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>1373</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -19562,7 +19562,7 @@
         <v>1258</v>
       </c>
       <c r="F26" t="s">
-        <v>1414</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -19582,7 +19582,7 @@
         <v>1259</v>
       </c>
       <c r="F27" t="s">
-        <v>1415</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -19602,7 +19602,7 @@
         <v>1260</v>
       </c>
       <c r="F28" t="s">
-        <v>1416</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -19622,7 +19622,7 @@
         <v>1261</v>
       </c>
       <c r="F29" t="s">
-        <v>1417</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -20099,10 +20099,10 @@
         <v>523</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>1372</v>
+        <v>1364</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>1373</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -20242,7 +20242,7 @@
         <v>1262</v>
       </c>
       <c r="F10" t="s">
-        <v>1519</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -20262,7 +20262,7 @@
         <v>1263</v>
       </c>
       <c r="F11" t="s">
-        <v>1520</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -20282,7 +20282,7 @@
         <v>1264</v>
       </c>
       <c r="F12" t="s">
-        <v>1521</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -20302,7 +20302,7 @@
         <v>1265</v>
       </c>
       <c r="F13" t="s">
-        <v>1522</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -20637,10 +20637,10 @@
         <v>523</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>1372</v>
+        <v>1364</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>1373</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -20669,7 +20669,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1565</v>
+        <v>1539</v>
       </c>
       <c r="E3" s="6"/>
     </row>
@@ -20879,10 +20879,10 @@
         <v>712</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>1699</v>
+        <v>1656</v>
       </c>
       <c r="F18" t="s">
-        <v>1701</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -20890,7 +20890,7 @@
         <v>37</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1518</v>
+        <v>1500</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>2</v>
@@ -20899,10 +20899,10 @@
         <v>270</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>1700</v>
+        <v>1657</v>
       </c>
       <c r="F19" t="s">
-        <v>1702</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -21134,10 +21134,10 @@
         <v>523</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>1372</v>
+        <v>1364</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>1373</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -21145,7 +21145,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>1586</v>
+        <v>1560</v>
       </c>
       <c r="C2" s="29" t="s">
         <v>2</v>
@@ -21156,7 +21156,7 @@
         <v>36</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>1587</v>
+        <v>1561</v>
       </c>
       <c r="C3" s="29" t="s">
         <v>2</v>
@@ -21167,7 +21167,7 @@
         <v>37</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>1588</v>
+        <v>1562</v>
       </c>
       <c r="C4" s="29" t="s">
         <v>2</v>
@@ -21178,7 +21178,7 @@
         <v>38</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>1589</v>
+        <v>1563</v>
       </c>
       <c r="C5" s="29" t="s">
         <v>2</v>
@@ -21189,7 +21189,7 @@
         <v>39</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>1590</v>
+        <v>1564</v>
       </c>
       <c r="C6" s="29" t="s">
         <v>2</v>
@@ -21200,7 +21200,7 @@
         <v>40</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>1591</v>
+        <v>1565</v>
       </c>
       <c r="C7" s="29" t="s">
         <v>2</v>
@@ -21211,7 +21211,7 @@
         <v>41</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>1592</v>
+        <v>1566</v>
       </c>
       <c r="C8" s="29" t="s">
         <v>2</v>
@@ -21224,7 +21224,7 @@
         <v>102</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>1593</v>
+        <v>1567</v>
       </c>
       <c r="C9" s="29" t="s">
         <v>2</v>
@@ -21237,7 +21237,7 @@
         <v>103</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>1594</v>
+        <v>1568</v>
       </c>
       <c r="C10" s="29" t="s">
         <v>2</v>
@@ -21250,7 +21250,7 @@
         <v>104</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>1595</v>
+        <v>1569</v>
       </c>
       <c r="C11" s="29" t="s">
         <v>2</v>
@@ -21263,7 +21263,7 @@
         <v>105</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>1596</v>
+        <v>1570</v>
       </c>
       <c r="C12" s="29" t="s">
         <v>2</v>
@@ -21276,7 +21276,7 @@
         <v>106</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>1597</v>
+        <v>1571</v>
       </c>
       <c r="C13" s="29" t="s">
         <v>2</v>
@@ -21289,7 +21289,7 @@
         <v>107</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>1598</v>
+        <v>1572</v>
       </c>
       <c r="C14" s="29" t="s">
         <v>2</v>
@@ -21302,7 +21302,7 @@
         <v>108</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>1599</v>
+        <v>1573</v>
       </c>
       <c r="C15" s="29" t="s">
         <v>2</v>
@@ -21315,7 +21315,7 @@
         <v>109</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>1600</v>
+        <v>1574</v>
       </c>
       <c r="C16" s="29" t="s">
         <v>2</v>
@@ -21328,7 +21328,7 @@
         <v>110</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>1601</v>
+        <v>1575</v>
       </c>
       <c r="C17" s="29" t="s">
         <v>2</v>
@@ -21341,19 +21341,19 @@
         <v>111</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>1602</v>
+        <v>1576</v>
       </c>
       <c r="C18" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>1566</v>
+        <v>1540</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>1567</v>
+        <v>1541</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>1568</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -21361,19 +21361,19 @@
         <v>42</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>1603</v>
+        <v>1577</v>
       </c>
       <c r="C19" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>1569</v>
+        <v>1543</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>1570</v>
+        <v>1544</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>1571</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -21381,19 +21381,19 @@
         <v>292</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>1604</v>
+        <v>1578</v>
       </c>
       <c r="C20" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>1572</v>
+        <v>1546</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>1573</v>
+        <v>1547</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>1574</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -21401,19 +21401,19 @@
         <v>305</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>1605</v>
+        <v>1579</v>
       </c>
       <c r="C21" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>1575</v>
+        <v>1549</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>1576</v>
+        <v>1550</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>1577</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -21421,19 +21421,19 @@
         <v>306</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>1606</v>
+        <v>1580</v>
       </c>
       <c r="C22" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>1578</v>
+        <v>1552</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>1579</v>
+        <v>1553</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>1580</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -21441,19 +21441,19 @@
         <v>307</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>1607</v>
+        <v>1581</v>
       </c>
       <c r="C23" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>1581</v>
+        <v>1555</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>1582</v>
+        <v>1556</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>1583</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -21461,7 +21461,7 @@
         <v>308</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>1608</v>
+        <v>1582</v>
       </c>
       <c r="C24" s="29" t="s">
         <v>2</v>
@@ -21475,7 +21475,7 @@
         <v>309</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>1609</v>
+        <v>1583</v>
       </c>
       <c r="C25" s="29" t="s">
         <v>2</v>
@@ -21489,7 +21489,7 @@
         <v>310</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>1610</v>
+        <v>1584</v>
       </c>
       <c r="C26" s="29" t="s">
         <v>2</v>
@@ -21503,7 +21503,7 @@
         <v>311</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>1611</v>
+        <v>1585</v>
       </c>
       <c r="C27" s="29" t="s">
         <v>2</v>
@@ -21517,7 +21517,7 @@
         <v>465</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>1612</v>
+        <v>1586</v>
       </c>
       <c r="C28" s="29" t="s">
         <v>2</v>
@@ -21531,7 +21531,7 @@
         <v>466</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>1613</v>
+        <v>1587</v>
       </c>
       <c r="C29" s="29" t="s">
         <v>2</v>
@@ -21545,7 +21545,7 @@
         <v>467</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>1614</v>
+        <v>1588</v>
       </c>
       <c r="C30" s="29" t="s">
         <v>2</v>
@@ -21559,7 +21559,7 @@
         <v>468</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>1615</v>
+        <v>1589</v>
       </c>
       <c r="C31" s="29" t="s">
         <v>2</v>
@@ -21573,7 +21573,7 @@
         <v>469</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>1616</v>
+        <v>1590</v>
       </c>
       <c r="C32" s="29" t="s">
         <v>2</v>
@@ -21587,7 +21587,7 @@
         <v>470</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>1617</v>
+        <v>1591</v>
       </c>
       <c r="C33" s="29" t="s">
         <v>2</v>
@@ -21601,13 +21601,13 @@
         <v>471</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>1618</v>
+        <v>1592</v>
       </c>
       <c r="C34" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>1584</v>
+        <v>1558</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -21617,13 +21617,13 @@
         <v>43</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>1619</v>
+        <v>1593</v>
       </c>
       <c r="C35" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>1584</v>
+        <v>1558</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -21633,13 +21633,13 @@
         <v>472</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>1620</v>
+        <v>1594</v>
       </c>
       <c r="C36" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>1584</v>
+        <v>1558</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -21649,13 +21649,13 @@
         <v>473</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>1621</v>
+        <v>1595</v>
       </c>
       <c r="C37" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>1584</v>
+        <v>1558</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -21665,13 +21665,13 @@
         <v>474</v>
       </c>
       <c r="B38" s="28" t="s">
-        <v>1622</v>
+        <v>1596</v>
       </c>
       <c r="C38" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="29" t="s">
-        <v>1584</v>
+        <v>1558</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -21681,13 +21681,13 @@
         <v>475</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>1623</v>
+        <v>1597</v>
       </c>
       <c r="C39" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D39" s="29" t="s">
-        <v>1584</v>
+        <v>1558</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -21697,13 +21697,13 @@
         <v>476</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>1624</v>
+        <v>1598</v>
       </c>
       <c r="C40" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D40" s="29" t="s">
-        <v>1584</v>
+        <v>1558</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -21713,13 +21713,13 @@
         <v>477</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>1625</v>
+        <v>1599</v>
       </c>
       <c r="C41" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D41" s="29" t="s">
-        <v>1584</v>
+        <v>1558</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -21729,13 +21729,13 @@
         <v>478</v>
       </c>
       <c r="B42" s="28" t="s">
-        <v>1626</v>
+        <v>1600</v>
       </c>
       <c r="C42" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D42" s="29" t="s">
-        <v>1584</v>
+        <v>1558</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -21745,13 +21745,13 @@
         <v>479</v>
       </c>
       <c r="B43" s="28" t="s">
-        <v>1627</v>
+        <v>1601</v>
       </c>
       <c r="C43" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D43" s="29" t="s">
-        <v>1584</v>
+        <v>1558</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -21761,13 +21761,13 @@
         <v>480</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>1628</v>
+        <v>1602</v>
       </c>
       <c r="C44" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D44" s="29" t="s">
-        <v>1584</v>
+        <v>1558</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -21777,13 +21777,13 @@
         <v>481</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>1629</v>
+        <v>1603</v>
       </c>
       <c r="C45" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D45" s="29" t="s">
-        <v>1584</v>
+        <v>1558</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -21793,13 +21793,13 @@
         <v>482</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>1630</v>
+        <v>1604</v>
       </c>
       <c r="C46" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>1584</v>
+        <v>1558</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -21809,13 +21809,13 @@
         <v>483</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>1631</v>
+        <v>1605</v>
       </c>
       <c r="C47" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>1584</v>
+        <v>1558</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -21825,13 +21825,13 @@
         <v>484</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>1632</v>
+        <v>1606</v>
       </c>
       <c r="C48" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>1584</v>
+        <v>1558</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -21841,13 +21841,13 @@
         <v>485</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>1633</v>
+        <v>1607</v>
       </c>
       <c r="C49" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>1584</v>
+        <v>1558</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -21857,13 +21857,13 @@
         <v>486</v>
       </c>
       <c r="B50" s="28" t="s">
-        <v>1634</v>
+        <v>1608</v>
       </c>
       <c r="C50" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>1584</v>
+        <v>1558</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -21873,13 +21873,13 @@
         <v>44</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>1635</v>
+        <v>1609</v>
       </c>
       <c r="C51" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D51" s="29" t="s">
-        <v>1584</v>
+        <v>1558</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -21889,13 +21889,13 @@
         <v>487</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>1636</v>
+        <v>1610</v>
       </c>
       <c r="C52" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D52" s="29" t="s">
-        <v>1584</v>
+        <v>1558</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -21905,13 +21905,13 @@
         <v>488</v>
       </c>
       <c r="B53" s="28" t="s">
-        <v>1637</v>
+        <v>1611</v>
       </c>
       <c r="C53" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D53" s="29" t="s">
-        <v>1584</v>
+        <v>1558</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -21921,13 +21921,13 @@
         <v>489</v>
       </c>
       <c r="B54" s="28" t="s">
-        <v>1638</v>
+        <v>1612</v>
       </c>
       <c r="C54" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D54" s="29" t="s">
-        <v>1584</v>
+        <v>1558</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
@@ -21937,13 +21937,13 @@
         <v>490</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>1639</v>
+        <v>1613</v>
       </c>
       <c r="C55" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D55" s="29" t="s">
-        <v>1584</v>
+        <v>1558</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -21953,13 +21953,13 @@
         <v>491</v>
       </c>
       <c r="B56" s="28" t="s">
-        <v>1640</v>
+        <v>1614</v>
       </c>
       <c r="C56" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D56" s="29" t="s">
-        <v>1584</v>
+        <v>1558</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -21969,13 +21969,13 @@
         <v>492</v>
       </c>
       <c r="B57" s="28" t="s">
-        <v>1641</v>
+        <v>1615</v>
       </c>
       <c r="C57" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D57" s="29" t="s">
-        <v>1584</v>
+        <v>1558</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -21985,141 +21985,141 @@
         <v>493</v>
       </c>
       <c r="B58" s="28" t="s">
-        <v>1642</v>
+        <v>1616</v>
       </c>
       <c r="C58" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D58" s="29" t="s">
-        <v>1584</v>
+        <v>1558</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="27" t="s">
-        <v>1650</v>
+        <v>1624</v>
       </c>
       <c r="B59" s="28" t="s">
-        <v>1643</v>
+        <v>1617</v>
       </c>
       <c r="C59" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D59" s="29" t="s">
-        <v>1584</v>
+        <v>1558</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="27" t="s">
-        <v>1651</v>
+        <v>1625</v>
       </c>
       <c r="B60" s="28" t="s">
-        <v>1644</v>
+        <v>1618</v>
       </c>
       <c r="C60" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D60" s="29" t="s">
-        <v>1584</v>
+        <v>1558</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="27" t="s">
-        <v>1652</v>
+        <v>1626</v>
       </c>
       <c r="B61" s="28" t="s">
-        <v>1645</v>
+        <v>1619</v>
       </c>
       <c r="C61" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D61" s="29" t="s">
-        <v>1584</v>
+        <v>1558</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="27" t="s">
-        <v>1653</v>
+        <v>1627</v>
       </c>
       <c r="B62" s="28" t="s">
-        <v>1646</v>
+        <v>1620</v>
       </c>
       <c r="C62" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D62" s="29" t="s">
-        <v>1584</v>
+        <v>1558</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="27" t="s">
-        <v>1654</v>
+        <v>1628</v>
       </c>
       <c r="B63" s="28" t="s">
-        <v>1647</v>
+        <v>1621</v>
       </c>
       <c r="C63" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D63" s="29" t="s">
-        <v>1584</v>
+        <v>1558</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="27" t="s">
-        <v>1655</v>
+        <v>1629</v>
       </c>
       <c r="B64" s="28" t="s">
-        <v>1648</v>
+        <v>1622</v>
       </c>
       <c r="C64" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D64" s="29" t="s">
-        <v>1584</v>
+        <v>1558</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="27" t="s">
-        <v>1656</v>
+        <v>1630</v>
       </c>
       <c r="B65" s="28" t="s">
-        <v>1649</v>
+        <v>1623</v>
       </c>
       <c r="C65" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D65" s="29" t="s">
-        <v>1584</v>
+        <v>1558</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="27" t="s">
-        <v>1657</v>
+        <v>1631</v>
       </c>
       <c r="B66" s="28" t="s">
-        <v>1649</v>
+        <v>1623</v>
       </c>
       <c r="C66" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D66" s="29" t="s">
-        <v>1584</v>
+        <v>1558</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
@@ -22169,10 +22169,10 @@
         <v>523</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>1372</v>
+        <v>1364</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>1373</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -22282,7 +22282,7 @@
         <v>1266</v>
       </c>
       <c r="F8" t="s">
-        <v>1375</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -22447,10 +22447,10 @@
         <v>523</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>1372</v>
+        <v>1364</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>1373</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -22869,7 +22869,7 @@
         <v>1227</v>
       </c>
       <c r="F29" t="s">
-        <v>1376</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -23052,7 +23052,7 @@
         <v>1228</v>
       </c>
       <c r="F41" t="s">
-        <v>1523</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -23072,7 +23072,7 @@
         <v>1229</v>
       </c>
       <c r="F42" t="s">
-        <v>1524</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -23183,7 +23183,7 @@
         <v>1231</v>
       </c>
       <c r="F50" t="s">
-        <v>1419</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -23203,7 +23203,7 @@
         <v>1230</v>
       </c>
       <c r="F51" t="s">
-        <v>1418</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -23223,7 +23223,7 @@
         <v>1232</v>
       </c>
       <c r="F52" t="s">
-        <v>1420</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -23243,7 +23243,7 @@
         <v>1233</v>
       </c>
       <c r="F53" t="s">
-        <v>1421</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -23263,7 +23263,7 @@
         <v>1234</v>
       </c>
       <c r="F54" t="s">
-        <v>1422</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -23283,7 +23283,7 @@
         <v>1235</v>
       </c>
       <c r="F55" t="s">
-        <v>1423</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -23301,7 +23301,7 @@
         <v>1236</v>
       </c>
       <c r="F56" t="s">
-        <v>1424</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -23319,7 +23319,7 @@
         <v>1237</v>
       </c>
       <c r="F57" t="s">
-        <v>1425</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -23339,7 +23339,7 @@
         <v>1243</v>
       </c>
       <c r="F58" t="s">
-        <v>1426</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -23359,7 +23359,7 @@
         <v>1244</v>
       </c>
       <c r="F59" t="s">
-        <v>1427</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -23379,7 +23379,7 @@
         <v>1245</v>
       </c>
       <c r="F60" t="s">
-        <v>1428</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -23399,7 +23399,7 @@
         <v>1246</v>
       </c>
       <c r="F61" t="s">
-        <v>1429</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -23419,7 +23419,7 @@
         <v>1247</v>
       </c>
       <c r="F62" t="s">
-        <v>1430</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -23437,7 +23437,7 @@
         <v>1248</v>
       </c>
       <c r="F63" t="s">
-        <v>1431</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -23455,7 +23455,7 @@
         <v>1249</v>
       </c>
       <c r="F64" t="s">
-        <v>1432</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -23570,7 +23570,7 @@
         <v>1238</v>
       </c>
       <c r="F72" t="s">
-        <v>1433</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -23588,7 +23588,7 @@
         <v>1239</v>
       </c>
       <c r="F73" t="s">
-        <v>1434</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -23632,7 +23632,7 @@
         <v>1240</v>
       </c>
       <c r="F76" t="s">
-        <v>1525</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -23650,7 +23650,7 @@
         <v>1241</v>
       </c>
       <c r="F77" t="s">
-        <v>1526</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -23668,7 +23668,7 @@
         <v>1242</v>
       </c>
       <c r="F78" t="s">
-        <v>1527</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -23676,19 +23676,19 @@
         <v>17</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>1658</v>
+        <v>1632</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>1659</v>
+        <v>1633</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>1660</v>
+        <v>1634</v>
       </c>
       <c r="F79" t="s">
-        <v>1661</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -23805,7 +23805,7 @@
   <dimension ref="A1:H92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+      <selection activeCell="E44" sqref="E44:F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23832,10 +23832,10 @@
         <v>523</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>1372</v>
+        <v>1364</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>1373</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -24665,19 +24665,19 @@
         <v>5.6</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>1710</v>
+        <v>1660</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>1713</v>
+        <v>1663</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>1704</v>
+        <v>1667</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>1705</v>
+        <v>1668</v>
       </c>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
@@ -24687,19 +24687,19 @@
         <v>5.7</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>1711</v>
+        <v>1661</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>1714</v>
+        <v>1664</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>1706</v>
+        <v>1669</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>1707</v>
+        <v>1670</v>
       </c>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
@@ -24718,10 +24718,10 @@
         <v>273</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>1703</v>
+        <v>1671</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
@@ -24740,10 +24740,10 @@
         <v>274</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>1362</v>
+        <v>1673</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>1435</v>
+        <v>1674</v>
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
@@ -24762,10 +24762,10 @@
         <v>274</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>1363</v>
+        <v>1675</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>1436</v>
+        <v>1676</v>
       </c>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
@@ -24775,7 +24775,7 @@
         <v>6.3</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>1675</v>
+        <v>1642</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>2</v>
@@ -24784,10 +24784,10 @@
         <v>274</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
@@ -24806,10 +24806,10 @@
         <v>275</v>
       </c>
       <c r="E54" s="31" t="s">
-        <v>1364</v>
+        <v>1679</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>1437</v>
+        <v>1680</v>
       </c>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
@@ -24828,10 +24828,10 @@
         <v>276</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>1365</v>
+        <v>1681</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>1438</v>
+        <v>1682</v>
       </c>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
@@ -24850,10 +24850,10 @@
         <v>247</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>1366</v>
+        <v>1683</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>1439</v>
+        <v>1684</v>
       </c>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
@@ -24872,10 +24872,10 @@
         <v>1148</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>1367</v>
+        <v>1685</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>1440</v>
+        <v>1686</v>
       </c>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
@@ -24894,10 +24894,10 @@
         <v>1149</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>1368</v>
+        <v>1687</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>1441</v>
+        <v>1688</v>
       </c>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
@@ -24913,13 +24913,13 @@
         <v>2</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>1552</v>
+        <v>1534</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>1369</v>
+        <v>1689</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>1442</v>
+        <v>1690</v>
       </c>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
@@ -24935,13 +24935,13 @@
         <v>2</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>1561</v>
+        <v>1535</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>1553</v>
+        <v>1691</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>1557</v>
+        <v>1692</v>
       </c>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
@@ -24957,13 +24957,13 @@
         <v>2</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>1562</v>
+        <v>1536</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>1554</v>
+        <v>1693</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>1558</v>
+        <v>1694</v>
       </c>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
@@ -24979,13 +24979,13 @@
         <v>2</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>1563</v>
+        <v>1537</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>1555</v>
+        <v>1695</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>1559</v>
+        <v>1696</v>
       </c>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
@@ -25001,13 +25001,13 @@
         <v>2</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>1564</v>
+        <v>1538</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>1556</v>
+        <v>1697</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>1560</v>
+        <v>1698</v>
       </c>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
@@ -25017,19 +25017,19 @@
         <v>7.6</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>1678</v>
+        <v>1643</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>1679</v>
+        <v>1644</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>1680</v>
+        <v>1699</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>1681</v>
+        <v>1700</v>
       </c>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
@@ -25177,19 +25177,19 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>1712</v>
+        <v>1662</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>1715</v>
+        <v>1665</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>1708</v>
+        <v>1701</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>1709</v>
+        <v>1702</v>
       </c>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
@@ -25199,19 +25199,19 @@
         <v>9</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>1516</v>
+        <v>1499</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>1682</v>
+        <v>1645</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>1515</v>
+        <v>1703</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>1517</v>
+        <v>1704</v>
       </c>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
@@ -25221,13 +25221,13 @@
         <v>9.1</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>1683</v>
+        <v>1646</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>1716</v>
+        <v>1666</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
@@ -25239,19 +25239,19 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>1662</v>
+        <v>1636</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>1671</v>
+        <v>1639</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>1665</v>
+        <v>1705</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>1668</v>
+        <v>1706</v>
       </c>
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
@@ -25261,19 +25261,19 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>1663</v>
+        <v>1637</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>1672</v>
+        <v>1640</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>1666</v>
+        <v>1707</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>1669</v>
+        <v>1708</v>
       </c>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
@@ -25283,19 +25283,19 @@
         <v>9.4</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>1664</v>
+        <v>1638</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>1673</v>
+        <v>1641</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>1667</v>
+        <v>1709</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>1670</v>
+        <v>1710</v>
       </c>
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
@@ -25305,7 +25305,7 @@
         <v>9.5</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>1684</v>
+        <v>1647</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>2</v>
@@ -25314,10 +25314,10 @@
         <v>272</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>1685</v>
+        <v>1711</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>1686</v>
+        <v>1712</v>
       </c>
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
@@ -25327,7 +25327,7 @@
         <v>9.6</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>1687</v>
+        <v>1648</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>2</v>
@@ -25336,10 +25336,10 @@
         <v>272</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>1688</v>
+        <v>1713</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>1689</v>
+        <v>1714</v>
       </c>
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
@@ -25349,7 +25349,7 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>1690</v>
+        <v>1649</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>2</v>
@@ -25358,10 +25358,10 @@
         <v>272</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>1691</v>
+        <v>1715</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>1692</v>
+        <v>1716</v>
       </c>
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
@@ -25425,13 +25425,13 @@
         <v>20</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>1693</v>
+        <v>1650</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>187</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>1694</v>
+        <v>1651</v>
       </c>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
@@ -25497,13 +25497,13 @@
         <v>36</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>1549</v>
+        <v>1531</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>189</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>1695</v>
+        <v>1652</v>
       </c>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
@@ -25515,13 +25515,13 @@
         <v>40</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>1550</v>
+        <v>1532</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>187</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>1696</v>
+        <v>1653</v>
       </c>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
@@ -25533,13 +25533,13 @@
         <v>44</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>1551</v>
+        <v>1533</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>189</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>1697</v>
+        <v>1654</v>
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
@@ -25562,30 +25562,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <MigrationWizIdPermissions xmlns="383b0bb7-e620-4e20-ae9e-4f262a20ab07" xsi:nil="true"/>
-    <MigrationWizId xmlns="383b0bb7-e620-4e20-ae9e-4f262a20ab07" xsi:nil="true"/>
-    <MigrationWizIdVersion xmlns="383b0bb7-e620-4e20-ae9e-4f262a20ab07" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f0 xmlns="383b0bb7-e620-4e20-ae9e-4f262a20ab07" xsi:nil="true"/>
-    <TaxCatchAll xmlns="aca03388-b78c-4415-a826-d0bf4eb594c5" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="383b0bb7-e620-4e20-ae9e-4f262a20ab07">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010010850144F0DC324986F9A783986EC17C" ma:contentTypeVersion="15" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="46229f97138f5b47edc4079bd42a726f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="383b0bb7-e620-4e20-ae9e-4f262a20ab07" xmlns:ns3="aca03388-b78c-4415-a826-d0bf4eb594c5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ae1af52ebfdbb73e4aed745e1e9600f5" ns2:_="" ns3:_="">
     <xsd:import namespace="383b0bb7-e620-4e20-ae9e-4f262a20ab07"/>
@@ -25804,26 +25780,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFE84900-1D66-40E2-A12A-E3BDA8DBE198}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="383b0bb7-e620-4e20-ae9e-4f262a20ab07"/>
-    <ds:schemaRef ds:uri="aca03388-b78c-4415-a826-d0bf4eb594c5"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{617A2C0A-5DB5-4DBE-AFE9-CF838D0B604D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <MigrationWizIdPermissions xmlns="383b0bb7-e620-4e20-ae9e-4f262a20ab07" xsi:nil="true"/>
+    <MigrationWizId xmlns="383b0bb7-e620-4e20-ae9e-4f262a20ab07" xsi:nil="true"/>
+    <MigrationWizIdVersion xmlns="383b0bb7-e620-4e20-ae9e-4f262a20ab07" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f0 xmlns="383b0bb7-e620-4e20-ae9e-4f262a20ab07" xsi:nil="true"/>
+    <TaxCatchAll xmlns="aca03388-b78c-4415-a826-d0bf4eb594c5" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="383b0bb7-e620-4e20-ae9e-4f262a20ab07">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F42FBFE-7A75-46D3-8582-FF1095977D3C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25840,4 +25821,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{617A2C0A-5DB5-4DBE-AFE9-CF838D0B604D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFE84900-1D66-40E2-A12A-E3BDA8DBE198}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="383b0bb7-e620-4e20-ae9e-4f262a20ab07"/>
+    <ds:schemaRef ds:uri="aca03388-b78c-4415-a826-d0bf4eb594c5"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Input/reduced_filtered_AI_hmi_alarms.xlsx
+++ b/Input/reduced_filtered_AI_hmi_alarms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefano.massoletti.REGROUP\Desktop\LAVORO\Leonardo\_Generiche\Tool Nastri Leonardo\Nastrini-e-Coriandoli\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0C8C46-50E0-4CAC-98B6-4FBE44A136E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E1CECF-E52A-4900-B2F9-AEA752B0F5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" tabRatio="1000" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SV DB" sheetId="18" r:id="rId1"/>
@@ -3733,9 +3733,6 @@
     <t>FIRESHUTTER #: FIRE ALARM detected.</t>
   </si>
   <si>
-    <t>SV_DV10001H</t>
-  </si>
-  <si>
     <t xml:space="preserve">CONVEYOR #: Alarms disabled by operator. </t>
   </si>
   <si>
@@ -5204,6 +5201,9 @@
   </si>
   <si>
     <t>CAROUSEL  : Moteur 3 - Défaut d'ouverture de l'interrupteur de sécurité.</t>
+  </si>
+  <si>
+    <t>Count</t>
   </si>
 </sst>
 </file>
@@ -5841,10 +5841,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5852,9 +5852,10 @@
     <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.6640625" customWidth="1"/>
     <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>235</v>
       </c>
@@ -5862,10 +5863,13 @@
         <v>236</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>1363</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1362</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>1204</v>
       </c>
@@ -5875,8 +5879,11 @@
       <c r="C2" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>1205</v>
       </c>
@@ -5886,8 +5893,11 @@
       <c r="C3" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>1206</v>
       </c>
@@ -5895,23 +5905,29 @@
         <v>304</v>
       </c>
       <c r="C4" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="D4" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="B5" s="8">
         <v>308</v>
       </c>
       <c r="C5" s="8">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="D5" s="8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="B6" s="8">
         <v>2306</v>
@@ -5919,8 +5935,11 @@
       <c r="C6" s="8">
         <v>90</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" s="8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>1207</v>
       </c>
@@ -5930,8 +5949,11 @@
       <c r="C7" s="8">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>1208</v>
       </c>
@@ -5941,8 +5963,11 @@
       <c r="C8" s="8">
         <v>120</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" s="8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>1209</v>
       </c>
@@ -5950,10 +5975,13 @@
         <v>332</v>
       </c>
       <c r="C9" s="8">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>400</v>
+      </c>
+      <c r="D9" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>1210</v>
       </c>
@@ -5961,10 +5989,13 @@
         <v>325</v>
       </c>
       <c r="C10" s="8">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>420</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>1211</v>
       </c>
@@ -5972,10 +6003,13 @@
         <v>342</v>
       </c>
       <c r="C11" s="8">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>440</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>1212</v>
       </c>
@@ -5983,10 +6017,13 @@
         <v>350</v>
       </c>
       <c r="C12" s="8">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>450</v>
+      </c>
+      <c r="D12" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>1213</v>
       </c>
@@ -5994,10 +6031,13 @@
         <v>376</v>
       </c>
       <c r="C13" s="8">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>550</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>1214</v>
       </c>
@@ -6005,10 +6045,13 @@
         <v>386</v>
       </c>
       <c r="C14" s="8">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>560</v>
+      </c>
+      <c r="D14" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>1215</v>
       </c>
@@ -6016,10 +6059,13 @@
         <v>388</v>
       </c>
       <c r="C15" s="8">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+      <c r="D15" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>1216</v>
       </c>
@@ -6027,51 +6073,52 @@
         <v>322</v>
       </c>
       <c r="C16" s="8">
+        <v>610</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B17" s="8">
+        <v>326</v>
+      </c>
+      <c r="C17" s="8">
+        <v>620</v>
+      </c>
+      <c r="D17" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B18" s="8">
+        <v>306</v>
+      </c>
+      <c r="C18" s="8">
+        <v>630</v>
+      </c>
+      <c r="D18" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="12" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B19" s="9">
         <v>310</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
-        <v>1226</v>
-      </c>
-      <c r="B17" s="8">
-        <v>398</v>
-      </c>
-      <c r="C17" s="8">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B18" s="8">
-        <v>326</v>
-      </c>
-      <c r="C18" s="8">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
-        <v>1218</v>
-      </c>
-      <c r="B19" s="8">
-        <v>306</v>
-      </c>
-      <c r="C19" s="8">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="12" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B20" s="9">
-        <v>310</v>
-      </c>
-      <c r="C20" s="9">
-        <v>370</v>
+      <c r="C19" s="9">
+        <v>660</v>
+      </c>
+      <c r="D19" s="9">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -6115,10 +6162,10 @@
         <v>523</v>
       </c>
       <c r="E1" s="17" t="s">
+        <v>1363</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>1364</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>1365</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -6178,10 +6225,10 @@
         <v>715</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="F5" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -6198,10 +6245,10 @@
         <v>716</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="F6" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -6218,10 +6265,10 @@
         <v>717</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="F7" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -8001,10 +8048,10 @@
         <v>523</v>
       </c>
       <c r="E1" s="17" t="s">
+        <v>1363</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>1364</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>1365</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -8598,10 +8645,10 @@
         <v>756</v>
       </c>
       <c r="E41" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -8618,10 +8665,10 @@
         <v>757</v>
       </c>
       <c r="E42" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -8744,10 +8791,10 @@
         <v>759</v>
       </c>
       <c r="E51" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -8764,10 +8811,10 @@
         <v>760</v>
       </c>
       <c r="E52" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -8784,10 +8831,10 @@
         <v>761</v>
       </c>
       <c r="E53" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -8804,10 +8851,10 @@
         <v>762</v>
       </c>
       <c r="E54" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -8824,10 +8871,10 @@
         <v>763</v>
       </c>
       <c r="E55" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -8842,10 +8889,10 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -8862,10 +8909,10 @@
         <v>1038</v>
       </c>
       <c r="E57" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -8882,10 +8929,10 @@
         <v>1039</v>
       </c>
       <c r="E58" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -8902,10 +8949,10 @@
         <v>764</v>
       </c>
       <c r="E59" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -8922,10 +8969,10 @@
         <v>765</v>
       </c>
       <c r="E60" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -8942,10 +8989,10 @@
         <v>766</v>
       </c>
       <c r="E61" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -8962,10 +9009,10 @@
         <v>767</v>
       </c>
       <c r="E62" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -8982,10 +9029,10 @@
         <v>768</v>
       </c>
       <c r="E63" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -9000,10 +9047,10 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -9018,10 +9065,10 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -9036,10 +9083,10 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -9054,10 +9101,10 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -9072,10 +9119,10 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -9090,10 +9137,10 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -9108,10 +9155,10 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -9220,7 +9267,7 @@
         <v>1219</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -9238,7 +9285,7 @@
         <v>1220</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -9282,7 +9329,7 @@
         <v>1221</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -9313,7 +9360,7 @@
         <v>1222</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -9357,7 +9404,7 @@
         <v>1224</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -10255,10 +10302,10 @@
         <v>523</v>
       </c>
       <c r="E1" s="17" t="s">
+        <v>1363</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>1364</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>1365</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -11051,10 +11098,10 @@
         <v>277</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="F58" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -11071,10 +11118,10 @@
         <v>278</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="F59" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -11091,10 +11138,10 @@
         <v>279</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="F60" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -11111,10 +11158,10 @@
         <v>280</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="F61" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -11131,10 +11178,10 @@
         <v>281</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="F62" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -11151,10 +11198,10 @@
         <v>247</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="F63" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -11171,10 +11218,10 @@
         <v>285</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="F64" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -11491,10 +11538,10 @@
         <v>523</v>
       </c>
       <c r="E1" s="17" t="s">
+        <v>1363</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>1364</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>1365</v>
       </c>
       <c r="G1" s="6"/>
     </row>
@@ -11655,10 +11702,10 @@
         <v>778</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="G11" s="6"/>
     </row>
@@ -11676,10 +11723,10 @@
         <v>780</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="G12" s="6"/>
     </row>
@@ -11697,10 +11744,10 @@
         <v>782</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="G13" s="6"/>
     </row>
@@ -11718,10 +11765,10 @@
         <v>784</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="G14" s="6"/>
     </row>
@@ -11933,10 +11980,10 @@
         <v>523</v>
       </c>
       <c r="E1" s="17" t="s">
+        <v>1363</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>1364</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>1365</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -12021,10 +12068,10 @@
         <v>800</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="F6" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -12043,10 +12090,10 @@
         <v>802</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="F7" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -12065,10 +12112,10 @@
         <v>804</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="F8" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -12087,10 +12134,10 @@
         <v>806</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="F9" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -12109,10 +12156,10 @@
         <v>808</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="F10" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -12131,10 +12178,10 @@
         <v>810</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="F11" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -12225,10 +12272,10 @@
         <v>523</v>
       </c>
       <c r="E1" s="17" t="s">
+        <v>1363</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>1364</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>1365</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -12303,10 +12350,10 @@
         <v>818</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="F6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -12491,10 +12538,10 @@
         <v>825</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="F19" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -12511,10 +12558,10 @@
         <v>826</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="F20" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -12531,10 +12578,10 @@
         <v>827</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="F21" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -12551,10 +12598,10 @@
         <v>828</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="F22" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -12571,10 +12618,10 @@
         <v>829</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="F23" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -12589,10 +12636,10 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="6" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="F24" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -12680,10 +12727,10 @@
         <v>523</v>
       </c>
       <c r="E1" s="17" t="s">
+        <v>1363</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>1364</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>1365</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -12863,10 +12910,10 @@
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="6" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="F13" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -13189,10 +13236,10 @@
         <v>1191</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="F37" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -13209,10 +13256,10 @@
         <v>1025</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="F38" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -13229,10 +13276,10 @@
         <v>1181</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="F39" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -13249,10 +13296,10 @@
         <v>1182</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="F40" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -13269,10 +13316,10 @@
         <v>1183</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="F41" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -13289,10 +13336,10 @@
         <v>1184</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="F42" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -13309,10 +13356,10 @@
         <v>1185</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="F43" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -13329,10 +13376,10 @@
         <v>1186</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="F44" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -13349,10 +13396,10 @@
         <v>1187</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="F45" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -13369,10 +13416,10 @@
         <v>1188</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="F46" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -13389,10 +13436,10 @@
         <v>1189</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="F47" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -13409,10 +13456,10 @@
         <v>1190</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="F48" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -13429,10 +13476,10 @@
         <v>1026</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="F49" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -13449,10 +13496,10 @@
         <v>1027</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="F50" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -13469,10 +13516,10 @@
         <v>1176</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="F51" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -13489,10 +13536,10 @@
         <v>1177</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="F52" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -13509,10 +13556,10 @@
         <v>1180</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="F53" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -13529,10 +13576,10 @@
         <v>1028</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="F54" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -13549,10 +13596,10 @@
         <v>1029</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="F55" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -13569,10 +13616,10 @@
         <v>1030</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="F56" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -13589,10 +13636,10 @@
         <v>1031</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="F57" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -13609,10 +13656,10 @@
         <v>1032</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="F58" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -13629,10 +13676,10 @@
         <v>1033</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="F59" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -13649,10 +13696,10 @@
         <v>1034</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="F60" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -13669,10 +13716,10 @@
         <v>1035</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="F61" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -13689,10 +13736,10 @@
         <v>1036</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="F62" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -13709,10 +13756,10 @@
         <v>1037</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="F63" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -13729,10 +13776,10 @@
         <v>1178</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="F64" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -13749,10 +13796,10 @@
         <v>1179</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="F65" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -13927,10 +13974,10 @@
         <v>523</v>
       </c>
       <c r="E1" s="17" t="s">
+        <v>1363</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>1364</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>1365</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -14256,10 +14303,10 @@
         <v>254</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="F23" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -14658,10 +14705,10 @@
         <v>272</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="F50" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -14678,10 +14725,10 @@
         <v>273</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="F51" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -14698,10 +14745,10 @@
         <v>274</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="F52" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -14718,10 +14765,10 @@
         <v>275</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="F53" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -14738,10 +14785,10 @@
         <v>276</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="F54" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -14758,10 +14805,10 @@
         <v>247</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="F55" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -14778,10 +14825,10 @@
         <v>874</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="F56" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -14826,10 +14873,10 @@
         <v>278</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="F59" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -14846,10 +14893,10 @@
         <v>279</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="F60" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -14866,10 +14913,10 @@
         <v>280</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="F61" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -14886,10 +14933,10 @@
         <v>281</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="F62" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -15225,10 +15272,10 @@
         <v>523</v>
       </c>
       <c r="E1" s="17" t="s">
+        <v>1363</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>1364</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>1365</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -15470,7 +15517,7 @@
         <v>1225</v>
       </c>
       <c r="F18" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -15487,10 +15534,10 @@
         <v>1171</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="F19" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -15719,10 +15766,10 @@
         <v>523</v>
       </c>
       <c r="E1" s="17" t="s">
+        <v>1363</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>1364</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>1365</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -15854,10 +15901,10 @@
         <v>1098</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="F10" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -15874,10 +15921,10 @@
         <v>1099</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="F11" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -15894,10 +15941,10 @@
         <v>1100</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="F12" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -16189,10 +16236,10 @@
         <v>523</v>
       </c>
       <c r="E1" s="17" t="s">
+        <v>1363</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>1364</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>1365</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -16222,10 +16269,10 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="6" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F3" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -16430,10 +16477,10 @@
         <v>526</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="F18" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -16450,10 +16497,10 @@
         <v>527</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="F19" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -16470,10 +16517,10 @@
         <v>680</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="F20" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -16490,10 +16537,10 @@
         <v>528</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="F21" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -16510,10 +16557,10 @@
         <v>529</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F22" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -16530,10 +16577,10 @@
         <v>530</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="F23" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -16550,10 +16597,10 @@
         <v>531</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="F24" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -18653,10 +18700,10 @@
         <v>523</v>
       </c>
       <c r="E1" s="17" t="s">
+        <v>1363</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>1364</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>1365</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -18703,10 +18750,10 @@
         <v>1163</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="F4" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -18923,10 +18970,10 @@
         <v>523</v>
       </c>
       <c r="E1" s="17" t="s">
+        <v>1363</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>1364</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>1365</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -18934,19 +18981,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="F2" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -18954,19 +19001,19 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="F3" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -18974,19 +19021,19 @@
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="F4" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -18994,7 +19041,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>2</v>
@@ -19007,7 +19054,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>2</v>
@@ -19020,7 +19067,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
@@ -19033,7 +19080,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>2</v>
@@ -19046,7 +19093,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
@@ -19059,7 +19106,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>2</v>
@@ -19072,7 +19119,7 @@
         <v>19</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>2</v>
@@ -19085,7 +19132,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>2</v>
@@ -19170,7 +19217,7 @@
   </sheetPr>
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B18" sqref="B18:E18"/>
     </sheetView>
   </sheetViews>
@@ -19199,10 +19246,10 @@
         <v>523</v>
       </c>
       <c r="E1" s="17" t="s">
+        <v>1363</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>1364</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>1365</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -19559,10 +19606,10 @@
         <v>696</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="F26" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -19579,10 +19626,10 @@
         <v>697</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="F27" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -19599,10 +19646,10 @@
         <v>698</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="F28" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -19619,10 +19666,10 @@
         <v>699</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="F29" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -20099,10 +20146,10 @@
         <v>523</v>
       </c>
       <c r="E1" s="17" t="s">
+        <v>1363</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>1364</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>1365</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -20239,10 +20286,10 @@
         <v>245</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="F10" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -20259,10 +20306,10 @@
         <v>246</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="F11" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -20279,10 +20326,10 @@
         <v>247</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="F12" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -20299,10 +20346,10 @@
         <v>248</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="F13" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -20637,10 +20684,10 @@
         <v>523</v>
       </c>
       <c r="E1" s="17" t="s">
+        <v>1363</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>1364</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>1365</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -20669,7 +20716,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="E3" s="6"/>
     </row>
@@ -20879,10 +20926,10 @@
         <v>712</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="F18" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -20890,7 +20937,7 @@
         <v>37</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>2</v>
@@ -20899,10 +20946,10 @@
         <v>270</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="F19" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -21106,7 +21153,7 @@
   </sheetPr>
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
@@ -21134,10 +21181,10 @@
         <v>523</v>
       </c>
       <c r="E1" s="17" t="s">
+        <v>1363</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>1364</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>1365</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -21145,7 +21192,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="C2" s="29" t="s">
         <v>2</v>
@@ -21156,7 +21203,7 @@
         <v>36</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="C3" s="29" t="s">
         <v>2</v>
@@ -21167,7 +21214,7 @@
         <v>37</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="C4" s="29" t="s">
         <v>2</v>
@@ -21178,7 +21225,7 @@
         <v>38</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="C5" s="29" t="s">
         <v>2</v>
@@ -21189,7 +21236,7 @@
         <v>39</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="C6" s="29" t="s">
         <v>2</v>
@@ -21200,7 +21247,7 @@
         <v>40</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="C7" s="29" t="s">
         <v>2</v>
@@ -21211,7 +21258,7 @@
         <v>41</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="C8" s="29" t="s">
         <v>2</v>
@@ -21224,7 +21271,7 @@
         <v>102</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="C9" s="29" t="s">
         <v>2</v>
@@ -21237,7 +21284,7 @@
         <v>103</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="C10" s="29" t="s">
         <v>2</v>
@@ -21250,7 +21297,7 @@
         <v>104</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="C11" s="29" t="s">
         <v>2</v>
@@ -21263,7 +21310,7 @@
         <v>105</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="C12" s="29" t="s">
         <v>2</v>
@@ -21276,7 +21323,7 @@
         <v>106</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="C13" s="29" t="s">
         <v>2</v>
@@ -21289,7 +21336,7 @@
         <v>107</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="C14" s="29" t="s">
         <v>2</v>
@@ -21302,7 +21349,7 @@
         <v>108</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="C15" s="29" t="s">
         <v>2</v>
@@ -21315,7 +21362,7 @@
         <v>109</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="C16" s="29" t="s">
         <v>2</v>
@@ -21328,7 +21375,7 @@
         <v>110</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="C17" s="29" t="s">
         <v>2</v>
@@ -21341,19 +21388,19 @@
         <v>111</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="C18" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="29" t="s">
+        <v>1539</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>1540</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>1541</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>1542</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -21361,19 +21408,19 @@
         <v>42</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="C19" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="29" t="s">
+        <v>1542</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>1543</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>1544</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>1545</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -21381,19 +21428,19 @@
         <v>292</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="C20" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="29" t="s">
+        <v>1545</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>1546</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>1547</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>1548</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -21401,19 +21448,19 @@
         <v>305</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="C21" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="29" t="s">
+        <v>1548</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>1549</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>1550</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>1551</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -21421,19 +21468,19 @@
         <v>306</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="C22" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="29" t="s">
+        <v>1551</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>1552</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>1553</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>1554</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -21441,19 +21488,19 @@
         <v>307</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="C23" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D23" s="29" t="s">
+        <v>1554</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>1555</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>1556</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>1557</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -21461,7 +21508,7 @@
         <v>308</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="C24" s="29" t="s">
         <v>2</v>
@@ -21475,7 +21522,7 @@
         <v>309</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="C25" s="29" t="s">
         <v>2</v>
@@ -21489,7 +21536,7 @@
         <v>310</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="C26" s="29" t="s">
         <v>2</v>
@@ -21503,7 +21550,7 @@
         <v>311</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="C27" s="29" t="s">
         <v>2</v>
@@ -21517,7 +21564,7 @@
         <v>465</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="C28" s="29" t="s">
         <v>2</v>
@@ -21531,7 +21578,7 @@
         <v>466</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="C29" s="29" t="s">
         <v>2</v>
@@ -21545,7 +21592,7 @@
         <v>467</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="C30" s="29" t="s">
         <v>2</v>
@@ -21559,7 +21606,7 @@
         <v>468</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="C31" s="29" t="s">
         <v>2</v>
@@ -21573,7 +21620,7 @@
         <v>469</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="C32" s="29" t="s">
         <v>2</v>
@@ -21587,7 +21634,7 @@
         <v>470</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="C33" s="29" t="s">
         <v>2</v>
@@ -21601,13 +21648,13 @@
         <v>471</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="C34" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -21617,13 +21664,13 @@
         <v>43</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="C35" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -21633,13 +21680,13 @@
         <v>472</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="C36" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -21649,13 +21696,13 @@
         <v>473</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="C37" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -21665,13 +21712,13 @@
         <v>474</v>
       </c>
       <c r="B38" s="28" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="C38" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="29" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -21681,13 +21728,13 @@
         <v>475</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="C39" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D39" s="29" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -21697,13 +21744,13 @@
         <v>476</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="C40" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D40" s="29" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -21713,13 +21760,13 @@
         <v>477</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="C41" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D41" s="29" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -21729,13 +21776,13 @@
         <v>478</v>
       </c>
       <c r="B42" s="28" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="C42" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D42" s="29" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -21745,13 +21792,13 @@
         <v>479</v>
       </c>
       <c r="B43" s="28" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="C43" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D43" s="29" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -21761,13 +21808,13 @@
         <v>480</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="C44" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D44" s="29" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -21777,13 +21824,13 @@
         <v>481</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="C45" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D45" s="29" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -21793,13 +21840,13 @@
         <v>482</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="C46" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -21809,13 +21856,13 @@
         <v>483</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="C47" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -21825,13 +21872,13 @@
         <v>484</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C48" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -21841,13 +21888,13 @@
         <v>485</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="C49" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -21857,13 +21904,13 @@
         <v>486</v>
       </c>
       <c r="B50" s="28" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="C50" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -21873,13 +21920,13 @@
         <v>44</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="C51" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D51" s="29" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -21889,13 +21936,13 @@
         <v>487</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="C52" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D52" s="29" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -21905,13 +21952,13 @@
         <v>488</v>
       </c>
       <c r="B53" s="28" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="C53" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D53" s="29" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -21921,13 +21968,13 @@
         <v>489</v>
       </c>
       <c r="B54" s="28" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C54" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D54" s="29" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
@@ -21937,13 +21984,13 @@
         <v>490</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="C55" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D55" s="29" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -21953,13 +22000,13 @@
         <v>491</v>
       </c>
       <c r="B56" s="28" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="C56" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D56" s="29" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -21969,13 +22016,13 @@
         <v>492</v>
       </c>
       <c r="B57" s="28" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="C57" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D57" s="29" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -21985,141 +22032,141 @@
         <v>493</v>
       </c>
       <c r="B58" s="28" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="C58" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D58" s="29" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="27" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="B59" s="28" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="C59" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D59" s="29" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="27" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="B60" s="28" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="C60" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D60" s="29" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="27" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="B61" s="28" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="C61" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D61" s="29" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="27" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="B62" s="28" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="C62" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D62" s="29" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="27" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="B63" s="28" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="C63" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D63" s="29" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="27" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="B64" s="28" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="C64" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D64" s="29" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="27" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="B65" s="28" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="C65" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D65" s="29" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="27" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="B66" s="28" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="C66" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D66" s="29" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
@@ -22169,10 +22216,10 @@
         <v>523</v>
       </c>
       <c r="E1" s="17" t="s">
+        <v>1363</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>1364</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>1365</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -22279,10 +22326,10 @@
         <v>270</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="F8" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -22447,10 +22494,10 @@
         <v>523</v>
       </c>
       <c r="E1" s="17" t="s">
+        <v>1363</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>1364</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>1365</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -22866,10 +22913,10 @@
         <v>259</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="F29" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -23049,10 +23096,10 @@
         <v>270</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="F41" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -23069,10 +23116,10 @@
         <v>271</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="F42" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -23180,10 +23227,10 @@
         <v>273</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="F50" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -23200,10 +23247,10 @@
         <v>272</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="F51" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -23220,10 +23267,10 @@
         <v>274</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="F52" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -23240,10 +23287,10 @@
         <v>275</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="F53" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -23260,10 +23307,10 @@
         <v>276</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="F54" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -23280,10 +23327,10 @@
         <v>247</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="F55" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -23298,10 +23345,10 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="6" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="F56" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -23316,10 +23363,10 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="6" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="F57" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -23336,10 +23383,10 @@
         <v>277</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="F58" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -23356,10 +23403,10 @@
         <v>278</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="F59" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -23376,10 +23423,10 @@
         <v>279</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="F60" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -23396,10 +23443,10 @@
         <v>280</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="F61" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -23416,10 +23463,10 @@
         <v>281</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="F62" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -23434,10 +23481,10 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="6" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="F63" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -23452,10 +23499,10 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="6" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="F64" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -23567,10 +23614,10 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="6" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="F72" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -23585,10 +23632,10 @@
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="6" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="F73" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -23629,10 +23676,10 @@
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="6" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="F76" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -23647,10 +23694,10 @@
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="6" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="F77" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -23665,10 +23712,10 @@
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="6" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="F78" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -23676,19 +23723,19 @@
         <v>17</v>
       </c>
       <c r="B79" s="4" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>1632</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D79" s="2" t="s">
+      <c r="E79" s="6" t="s">
         <v>1633</v>
       </c>
-      <c r="E79" s="6" t="s">
+      <c r="F79" t="s">
         <v>1634</v>
-      </c>
-      <c r="F79" t="s">
-        <v>1635</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -23804,7 +23851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A42" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E44" sqref="E44:F85"/>
     </sheetView>
   </sheetViews>
@@ -23832,10 +23879,10 @@
         <v>523</v>
       </c>
       <c r="E1" s="17" t="s">
+        <v>1363</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>1364</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>1365</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -24665,19 +24712,19 @@
         <v>5.6</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="E48" s="5" t="s">
+        <v>1666</v>
+      </c>
+      <c r="F48" s="5" t="s">
         <v>1667</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>1668</v>
       </c>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
@@ -24687,19 +24734,19 @@
         <v>5.7</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="E49" s="5" t="s">
+        <v>1668</v>
+      </c>
+      <c r="F49" s="5" t="s">
         <v>1669</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>1670</v>
       </c>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
@@ -24718,10 +24765,10 @@
         <v>273</v>
       </c>
       <c r="E50" s="5" t="s">
+        <v>1670</v>
+      </c>
+      <c r="F50" s="5" t="s">
         <v>1671</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>1672</v>
       </c>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
@@ -24740,10 +24787,10 @@
         <v>274</v>
       </c>
       <c r="E51" s="5" t="s">
+        <v>1672</v>
+      </c>
+      <c r="F51" s="5" t="s">
         <v>1673</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>1674</v>
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
@@ -24762,10 +24809,10 @@
         <v>274</v>
       </c>
       <c r="E52" s="5" t="s">
+        <v>1674</v>
+      </c>
+      <c r="F52" s="5" t="s">
         <v>1675</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>1676</v>
       </c>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
@@ -24775,7 +24822,7 @@
         <v>6.3</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>2</v>
@@ -24784,10 +24831,10 @@
         <v>274</v>
       </c>
       <c r="E53" s="5" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F53" s="5" t="s">
         <v>1677</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>1678</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
@@ -24806,10 +24853,10 @@
         <v>275</v>
       </c>
       <c r="E54" s="31" t="s">
+        <v>1678</v>
+      </c>
+      <c r="F54" s="5" t="s">
         <v>1679</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>1680</v>
       </c>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
@@ -24828,10 +24875,10 @@
         <v>276</v>
       </c>
       <c r="E55" s="5" t="s">
+        <v>1680</v>
+      </c>
+      <c r="F55" s="5" t="s">
         <v>1681</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>1682</v>
       </c>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
@@ -24850,10 +24897,10 @@
         <v>247</v>
       </c>
       <c r="E56" s="5" t="s">
+        <v>1682</v>
+      </c>
+      <c r="F56" s="5" t="s">
         <v>1683</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>1684</v>
       </c>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
@@ -24872,10 +24919,10 @@
         <v>1148</v>
       </c>
       <c r="E57" s="5" t="s">
+        <v>1684</v>
+      </c>
+      <c r="F57" s="5" t="s">
         <v>1685</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>1686</v>
       </c>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
@@ -24894,10 +24941,10 @@
         <v>1149</v>
       </c>
       <c r="E58" s="5" t="s">
+        <v>1686</v>
+      </c>
+      <c r="F58" s="5" t="s">
         <v>1687</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>1688</v>
       </c>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
@@ -24913,13 +24960,13 @@
         <v>2</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="E59" s="5" t="s">
+        <v>1688</v>
+      </c>
+      <c r="F59" s="5" t="s">
         <v>1689</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>1690</v>
       </c>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
@@ -24935,13 +24982,13 @@
         <v>2</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="E60" s="5" t="s">
+        <v>1690</v>
+      </c>
+      <c r="F60" s="5" t="s">
         <v>1691</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>1692</v>
       </c>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
@@ -24957,13 +25004,13 @@
         <v>2</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="E61" s="5" t="s">
+        <v>1692</v>
+      </c>
+      <c r="F61" s="5" t="s">
         <v>1693</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>1694</v>
       </c>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
@@ -24979,13 +25026,13 @@
         <v>2</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="E62" s="5" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F62" s="5" t="s">
         <v>1695</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>1696</v>
       </c>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
@@ -25001,13 +25048,13 @@
         <v>2</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="E63" s="5" t="s">
+        <v>1696</v>
+      </c>
+      <c r="F63" s="5" t="s">
         <v>1697</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>1698</v>
       </c>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
@@ -25017,19 +25064,19 @@
         <v>7.6</v>
       </c>
       <c r="B64" s="5" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" s="5" t="s">
         <v>1643</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>1644</v>
-      </c>
       <c r="E64" s="5" t="s">
+        <v>1698</v>
+      </c>
+      <c r="F64" s="5" t="s">
         <v>1699</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>1700</v>
       </c>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
@@ -25177,19 +25224,19 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="E73" s="5" t="s">
+        <v>1700</v>
+      </c>
+      <c r="F73" s="5" t="s">
         <v>1701</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>1702</v>
       </c>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
@@ -25199,19 +25246,19 @@
         <v>9</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="E74" s="5" t="s">
+        <v>1702</v>
+      </c>
+      <c r="F74" s="5" t="s">
         <v>1703</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>1704</v>
       </c>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
@@ -25221,13 +25268,13 @@
         <v>9.1</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
@@ -25239,19 +25286,19 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="E76" s="5" t="s">
+        <v>1704</v>
+      </c>
+      <c r="F76" s="5" t="s">
         <v>1705</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>1706</v>
       </c>
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
@@ -25261,19 +25308,19 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="E77" s="5" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F77" s="5" t="s">
         <v>1707</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>1708</v>
       </c>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
@@ -25283,19 +25330,19 @@
         <v>9.4</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="E78" s="5" t="s">
+        <v>1708</v>
+      </c>
+      <c r="F78" s="5" t="s">
         <v>1709</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>1710</v>
       </c>
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
@@ -25305,7 +25352,7 @@
         <v>9.5</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>2</v>
@@ -25314,10 +25361,10 @@
         <v>272</v>
       </c>
       <c r="E79" s="5" t="s">
+        <v>1710</v>
+      </c>
+      <c r="F79" s="5" t="s">
         <v>1711</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>1712</v>
       </c>
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
@@ -25327,7 +25374,7 @@
         <v>9.6</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>2</v>
@@ -25336,10 +25383,10 @@
         <v>272</v>
       </c>
       <c r="E80" s="5" t="s">
+        <v>1712</v>
+      </c>
+      <c r="F80" s="5" t="s">
         <v>1713</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>1714</v>
       </c>
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
@@ -25349,7 +25396,7 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>2</v>
@@ -25358,10 +25405,10 @@
         <v>272</v>
       </c>
       <c r="E81" s="5" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F81" s="5" t="s">
         <v>1715</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>1716</v>
       </c>
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
@@ -25425,13 +25472,13 @@
         <v>20</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>187</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
@@ -25497,13 +25544,13 @@
         <v>36</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>189</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
@@ -25515,13 +25562,13 @@
         <v>40</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>187</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
@@ -25533,13 +25580,13 @@
         <v>44</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>189</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
@@ -25781,15 +25828,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <MigrationWizIdPermissions xmlns="383b0bb7-e620-4e20-ae9e-4f262a20ab07" xsi:nil="true"/>
@@ -25802,6 +25840,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -25824,14 +25871,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{617A2C0A-5DB5-4DBE-AFE9-CF838D0B604D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFE84900-1D66-40E2-A12A-E3BDA8DBE198}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -25840,4 +25879,12 @@
     <ds:schemaRef ds:uri="aca03388-b78c-4415-a826-d0bf4eb594c5"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{617A2C0A-5DB5-4DBE-AFE9-CF838D0B604D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>